--- a/PARSER_ETL/movimentação_produtos/tratados/xpt_tbl_movint_produto_abr-2021_tratado.xlsx
+++ b/PARSER_ETL/movimentação_produtos/tratados/xpt_tbl_movint_produto_abr-2021_tratado.xlsx
@@ -555,7 +555,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>9676730780</v>
+        <v>7402647365</v>
       </c>
     </row>
     <row r="3">
@@ -603,7 +603,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>9895466455</v>
+        <v>9414785779</v>
       </c>
     </row>
     <row r="4">
@@ -651,7 +651,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>6534842384</v>
+        <v>1772674123</v>
       </c>
     </row>
     <row r="5">
@@ -699,7 +699,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>570934782</v>
+        <v>6539371910</v>
       </c>
     </row>
     <row r="6">
@@ -747,7 +747,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>8422037708</v>
+        <v>182118543</v>
       </c>
     </row>
     <row r="7">
@@ -799,7 +799,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>6873186405</v>
+        <v>8303307054</v>
       </c>
     </row>
     <row r="8">
@@ -847,7 +847,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>7770085497</v>
+        <v>981240265</v>
       </c>
     </row>
     <row r="9">
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>5164817787</v>
+        <v>8248146202</v>
       </c>
     </row>
     <row r="10">
@@ -943,7 +943,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>4225882999</v>
+        <v>5674154013</v>
       </c>
     </row>
     <row r="11">
@@ -991,7 +991,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>2825667133</v>
+        <v>4972570233</v>
       </c>
     </row>
     <row r="12">
@@ -1039,7 +1039,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>5761962673</v>
+        <v>7304088410</v>
       </c>
     </row>
     <row r="13">
@@ -1087,7 +1087,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>3212817080</v>
+        <v>7979091544</v>
       </c>
     </row>
     <row r="14">
@@ -1135,7 +1135,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>8427712417</v>
+        <v>5683557848</v>
       </c>
     </row>
     <row r="15">
@@ -1183,7 +1183,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>904175560</v>
+        <v>6225790627</v>
       </c>
     </row>
     <row r="16">
@@ -1231,7 +1231,7 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>3569117457</v>
+        <v>2589602903</v>
       </c>
     </row>
     <row r="17">
@@ -1279,7 +1279,7 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>4740858675</v>
+        <v>5542546840</v>
       </c>
     </row>
     <row r="18">
@@ -1327,7 +1327,7 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>5038102962</v>
+        <v>2313609095</v>
       </c>
     </row>
     <row r="19">
@@ -1375,7 +1375,7 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>9082679741</v>
+        <v>5826654012</v>
       </c>
     </row>
     <row r="20">
@@ -1423,7 +1423,7 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>8408795759</v>
+        <v>2616719221</v>
       </c>
     </row>
     <row r="21">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>4585931837</v>
+        <v>4438847568</v>
       </c>
     </row>
     <row r="22">
@@ -1519,7 +1519,7 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>2037078392</v>
+        <v>5190714439</v>
       </c>
     </row>
     <row r="23">
@@ -1567,7 +1567,7 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>8924038197</v>
+        <v>1694606110</v>
       </c>
     </row>
     <row r="24">
@@ -1615,7 +1615,7 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>8723693997</v>
+        <v>9938347316</v>
       </c>
     </row>
     <row r="25">
@@ -1663,7 +1663,7 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>7511530562</v>
+        <v>5413871134</v>
       </c>
     </row>
     <row r="26">
@@ -1711,7 +1711,7 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>9285152711</v>
+        <v>9494668835</v>
       </c>
     </row>
     <row r="27">
@@ -1759,7 +1759,7 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>5600488130</v>
+        <v>996591206</v>
       </c>
     </row>
     <row r="28">
@@ -1807,7 +1807,7 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>5300267207</v>
+        <v>1472155369</v>
       </c>
     </row>
     <row r="29">
@@ -1855,7 +1855,7 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>9161001325</v>
+        <v>799875877</v>
       </c>
     </row>
     <row r="30">
@@ -1903,7 +1903,7 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>5054830593</v>
+        <v>7094789106</v>
       </c>
     </row>
     <row r="31">
@@ -1951,7 +1951,7 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>6238467069</v>
+        <v>7748918617</v>
       </c>
     </row>
     <row r="32">
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="P32" t="n">
-        <v>6463219082</v>
+        <v>8074202665</v>
       </c>
     </row>
     <row r="33">
@@ -2047,7 +2047,7 @@
         </is>
       </c>
       <c r="P33" t="n">
-        <v>7260918102</v>
+        <v>5823719447</v>
       </c>
     </row>
     <row r="34">
@@ -2095,7 +2095,7 @@
         </is>
       </c>
       <c r="P34" t="n">
-        <v>5510945436</v>
+        <v>8047630903</v>
       </c>
     </row>
     <row r="35">
@@ -2143,7 +2143,7 @@
         </is>
       </c>
       <c r="P35" t="n">
-        <v>1681552914</v>
+        <v>5195549927</v>
       </c>
     </row>
     <row r="36">
@@ -2191,7 +2191,7 @@
         </is>
       </c>
       <c r="P36" t="n">
-        <v>3612485860</v>
+        <v>8395513944</v>
       </c>
     </row>
     <row r="37">
@@ -2239,7 +2239,7 @@
         </is>
       </c>
       <c r="P37" t="n">
-        <v>2715886453</v>
+        <v>1276861133</v>
       </c>
     </row>
     <row r="38">
@@ -2287,7 +2287,7 @@
         </is>
       </c>
       <c r="P38" t="n">
-        <v>1065146475</v>
+        <v>1704825691</v>
       </c>
     </row>
     <row r="39">
@@ -2335,7 +2335,7 @@
         </is>
       </c>
       <c r="P39" t="n">
-        <v>2524819653</v>
+        <v>2348318239</v>
       </c>
     </row>
     <row r="40">
@@ -2383,7 +2383,7 @@
         </is>
       </c>
       <c r="P40" t="n">
-        <v>8709904483</v>
+        <v>6820544251</v>
       </c>
     </row>
     <row r="41">
@@ -2431,7 +2431,7 @@
         </is>
       </c>
       <c r="P41" t="n">
-        <v>6335338808</v>
+        <v>8186020639</v>
       </c>
     </row>
     <row r="42">
@@ -2479,7 +2479,7 @@
         </is>
       </c>
       <c r="P42" t="n">
-        <v>368722281</v>
+        <v>3324457877</v>
       </c>
     </row>
     <row r="43">
@@ -2527,7 +2527,7 @@
         </is>
       </c>
       <c r="P43" t="n">
-        <v>1142830326</v>
+        <v>731769846</v>
       </c>
     </row>
     <row r="44">
@@ -2575,7 +2575,7 @@
         </is>
       </c>
       <c r="P44" t="n">
-        <v>1635626778</v>
+        <v>6673239554</v>
       </c>
     </row>
     <row r="45">
@@ -2623,7 +2623,7 @@
         </is>
       </c>
       <c r="P45" t="n">
-        <v>369852566</v>
+        <v>3893589256</v>
       </c>
     </row>
     <row r="46">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="P46" t="n">
-        <v>718205634</v>
+        <v>6564813885</v>
       </c>
     </row>
     <row r="47">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="P47" t="n">
-        <v>5966212836</v>
+        <v>5264118767</v>
       </c>
     </row>
     <row r="48">
@@ -2769,7 +2769,7 @@
         </is>
       </c>
       <c r="P48" t="n">
-        <v>4666201150</v>
+        <v>6370574199</v>
       </c>
     </row>
     <row r="49">
@@ -2817,7 +2817,7 @@
         </is>
       </c>
       <c r="P49" t="n">
-        <v>1045271984</v>
+        <v>3604888722</v>
       </c>
     </row>
     <row r="50">
@@ -2865,7 +2865,7 @@
         </is>
       </c>
       <c r="P50" t="n">
-        <v>7447067778</v>
+        <v>9248071230</v>
       </c>
     </row>
     <row r="51">
@@ -2913,7 +2913,7 @@
         </is>
       </c>
       <c r="P51" t="n">
-        <v>3350451497</v>
+        <v>1625534582</v>
       </c>
     </row>
     <row r="52">
@@ -2961,7 +2961,7 @@
         </is>
       </c>
       <c r="P52" t="n">
-        <v>9223757314</v>
+        <v>2112810036</v>
       </c>
     </row>
     <row r="53">
@@ -3009,7 +3009,7 @@
         </is>
       </c>
       <c r="P53" t="n">
-        <v>5580491092</v>
+        <v>1417729768</v>
       </c>
     </row>
     <row r="54">
@@ -3057,7 +3057,7 @@
         </is>
       </c>
       <c r="P54" t="n">
-        <v>3246405663</v>
+        <v>7516814684</v>
       </c>
     </row>
     <row r="55">
@@ -3105,7 +3105,7 @@
         </is>
       </c>
       <c r="P55" t="n">
-        <v>9780280454</v>
+        <v>9421745404</v>
       </c>
     </row>
     <row r="56">
@@ -3153,7 +3153,7 @@
         </is>
       </c>
       <c r="P56" t="n">
-        <v>3459135934</v>
+        <v>9124466923</v>
       </c>
     </row>
     <row r="57">
@@ -3203,7 +3203,7 @@
         </is>
       </c>
       <c r="P57" t="n">
-        <v>9820153708</v>
+        <v>9003041554</v>
       </c>
     </row>
     <row r="58">
@@ -3251,7 +3251,7 @@
         </is>
       </c>
       <c r="P58" t="n">
-        <v>8748856159</v>
+        <v>584681906</v>
       </c>
     </row>
     <row r="59">
@@ -3299,7 +3299,7 @@
         </is>
       </c>
       <c r="P59" t="n">
-        <v>5705592574</v>
+        <v>9130052492</v>
       </c>
     </row>
     <row r="60">
@@ -3347,7 +3347,7 @@
         </is>
       </c>
       <c r="P60" t="n">
-        <v>4505593734</v>
+        <v>2214680151</v>
       </c>
     </row>
     <row r="61">
@@ -3395,7 +3395,7 @@
         </is>
       </c>
       <c r="P61" t="n">
-        <v>7558771920</v>
+        <v>9446826433</v>
       </c>
     </row>
     <row r="62">
@@ -3443,7 +3443,7 @@
         </is>
       </c>
       <c r="P62" t="n">
-        <v>9037253324</v>
+        <v>5702089116</v>
       </c>
     </row>
     <row r="63">
@@ -3491,7 +3491,7 @@
         </is>
       </c>
       <c r="P63" t="n">
-        <v>5626895339</v>
+        <v>6668455659</v>
       </c>
     </row>
     <row r="64">
@@ -3539,7 +3539,7 @@
         </is>
       </c>
       <c r="P64" t="n">
-        <v>4238782325</v>
+        <v>4099878230</v>
       </c>
     </row>
     <row r="65">
@@ -3587,7 +3587,7 @@
         </is>
       </c>
       <c r="P65" t="n">
-        <v>1127329232</v>
+        <v>4855239972</v>
       </c>
     </row>
     <row r="66">
@@ -3635,7 +3635,7 @@
         </is>
       </c>
       <c r="P66" t="n">
-        <v>2551453002</v>
+        <v>3841262655</v>
       </c>
     </row>
     <row r="67">
@@ -3683,7 +3683,7 @@
         </is>
       </c>
       <c r="P67" t="n">
-        <v>453582000</v>
+        <v>9035356857</v>
       </c>
     </row>
     <row r="68">
@@ -3731,7 +3731,7 @@
         </is>
       </c>
       <c r="P68" t="n">
-        <v>4065230556</v>
+        <v>4258801275</v>
       </c>
     </row>
     <row r="69">
@@ -3779,7 +3779,7 @@
         </is>
       </c>
       <c r="P69" t="n">
-        <v>357714481</v>
+        <v>6774234275</v>
       </c>
     </row>
     <row r="70">
@@ -3827,7 +3827,7 @@
         </is>
       </c>
       <c r="P70" t="n">
-        <v>3361036800</v>
+        <v>631398610</v>
       </c>
     </row>
     <row r="71">
@@ -3875,7 +3875,7 @@
         </is>
       </c>
       <c r="P71" t="n">
-        <v>2203871959</v>
+        <v>6475794777</v>
       </c>
     </row>
     <row r="72">
@@ -3923,7 +3923,7 @@
         </is>
       </c>
       <c r="P72" t="n">
-        <v>1697265187</v>
+        <v>2499574868</v>
       </c>
     </row>
     <row r="73">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="P73" t="n">
-        <v>3327253709</v>
+        <v>9766465265</v>
       </c>
     </row>
     <row r="74">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="P74" t="n">
-        <v>9455479469</v>
+        <v>9907163812</v>
       </c>
     </row>
     <row r="75">
@@ -4069,7 +4069,7 @@
         </is>
       </c>
       <c r="P75" t="n">
-        <v>4592790094</v>
+        <v>7974160073</v>
       </c>
     </row>
     <row r="76">
@@ -4119,7 +4119,7 @@
         </is>
       </c>
       <c r="P76" t="n">
-        <v>3801827127</v>
+        <v>5063293639</v>
       </c>
     </row>
     <row r="77">
@@ -4169,7 +4169,7 @@
         </is>
       </c>
       <c r="P77" t="n">
-        <v>7235805837</v>
+        <v>1257861033</v>
       </c>
     </row>
     <row r="78">
@@ -4219,7 +4219,7 @@
         </is>
       </c>
       <c r="P78" t="n">
-        <v>9966706365</v>
+        <v>5746760290</v>
       </c>
     </row>
     <row r="79">
@@ -4267,7 +4267,7 @@
         </is>
       </c>
       <c r="P79" t="n">
-        <v>2474558963</v>
+        <v>3103616705</v>
       </c>
     </row>
     <row r="80">
@@ -4315,7 +4315,7 @@
         </is>
       </c>
       <c r="P80" t="n">
-        <v>248162245</v>
+        <v>7907673075</v>
       </c>
     </row>
     <row r="81">
@@ -4363,7 +4363,7 @@
         </is>
       </c>
       <c r="P81" t="n">
-        <v>1831030677</v>
+        <v>4680446800</v>
       </c>
     </row>
     <row r="82">
@@ -4411,7 +4411,7 @@
         </is>
       </c>
       <c r="P82" t="n">
-        <v>7661135145</v>
+        <v>3020969621</v>
       </c>
     </row>
     <row r="83">
@@ -4459,7 +4459,7 @@
         </is>
       </c>
       <c r="P83" t="n">
-        <v>5961116482</v>
+        <v>6209297018</v>
       </c>
     </row>
     <row r="84">
@@ -4507,7 +4507,7 @@
         </is>
       </c>
       <c r="P84" t="n">
-        <v>4935852671</v>
+        <v>4308749713</v>
       </c>
     </row>
     <row r="85">
@@ -4557,7 +4557,7 @@
         </is>
       </c>
       <c r="P85" t="n">
-        <v>6291193950</v>
+        <v>5820641078</v>
       </c>
     </row>
     <row r="86">
@@ -4605,7 +4605,7 @@
         </is>
       </c>
       <c r="P86" t="n">
-        <v>1365645591</v>
+        <v>5831302945</v>
       </c>
     </row>
     <row r="87">
@@ -4653,7 +4653,7 @@
         </is>
       </c>
       <c r="P87" t="n">
-        <v>3928769370</v>
+        <v>2373021238</v>
       </c>
     </row>
     <row r="88">
@@ -4703,7 +4703,7 @@
         </is>
       </c>
       <c r="P88" t="n">
-        <v>194956473</v>
+        <v>3415952803</v>
       </c>
     </row>
     <row r="89">
@@ -4753,7 +4753,7 @@
         </is>
       </c>
       <c r="P89" t="n">
-        <v>7196005467</v>
+        <v>9092989379</v>
       </c>
     </row>
     <row r="90">
@@ -4801,7 +4801,7 @@
         </is>
       </c>
       <c r="P90" t="n">
-        <v>7707405314</v>
+        <v>5246663565</v>
       </c>
     </row>
     <row r="91">
@@ -4849,7 +4849,7 @@
         </is>
       </c>
       <c r="P91" t="n">
-        <v>8664872583</v>
+        <v>901398519</v>
       </c>
     </row>
     <row r="92">
@@ -4897,7 +4897,7 @@
         </is>
       </c>
       <c r="P92" t="n">
-        <v>4447480625</v>
+        <v>4091086355</v>
       </c>
     </row>
     <row r="93">
@@ -4945,7 +4945,7 @@
         </is>
       </c>
       <c r="P93" t="n">
-        <v>8682192712</v>
+        <v>1738996547</v>
       </c>
     </row>
     <row r="94">
@@ -4993,7 +4993,7 @@
         </is>
       </c>
       <c r="P94" t="n">
-        <v>6048346219</v>
+        <v>5535481393</v>
       </c>
     </row>
     <row r="95">
@@ -5041,7 +5041,7 @@
         </is>
       </c>
       <c r="P95" t="n">
-        <v>400093950</v>
+        <v>8802338495</v>
       </c>
     </row>
     <row r="96">
@@ -5089,7 +5089,7 @@
         </is>
       </c>
       <c r="P96" t="n">
-        <v>8101829128</v>
+        <v>1200474182</v>
       </c>
     </row>
     <row r="97">
@@ -5137,7 +5137,7 @@
         </is>
       </c>
       <c r="P97" t="n">
-        <v>1034590762</v>
+        <v>5911834097</v>
       </c>
     </row>
     <row r="98">
@@ -5185,7 +5185,7 @@
         </is>
       </c>
       <c r="P98" t="n">
-        <v>2071786417</v>
+        <v>1186617568</v>
       </c>
     </row>
     <row r="99">
@@ -5233,7 +5233,7 @@
         </is>
       </c>
       <c r="P99" t="n">
-        <v>132258002</v>
+        <v>8362653606</v>
       </c>
     </row>
     <row r="100">
@@ -5283,7 +5283,7 @@
         </is>
       </c>
       <c r="P100" t="n">
-        <v>2344684787</v>
+        <v>8508056872</v>
       </c>
     </row>
     <row r="101">
@@ -5331,7 +5331,7 @@
         </is>
       </c>
       <c r="P101" t="n">
-        <v>7631141428</v>
+        <v>6596692962</v>
       </c>
     </row>
     <row r="102">
@@ -5379,7 +5379,7 @@
         </is>
       </c>
       <c r="P102" t="n">
-        <v>3431378298</v>
+        <v>9729153165</v>
       </c>
     </row>
     <row r="103">
@@ -5429,7 +5429,7 @@
         </is>
       </c>
       <c r="P103" t="n">
-        <v>7524187672</v>
+        <v>2402938588</v>
       </c>
     </row>
     <row r="104">
@@ -5477,7 +5477,7 @@
         </is>
       </c>
       <c r="P104" t="n">
-        <v>9173763380</v>
+        <v>7025894420</v>
       </c>
     </row>
     <row r="105">
@@ -5525,7 +5525,7 @@
         </is>
       </c>
       <c r="P105" t="n">
-        <v>2822698307</v>
+        <v>6950816753</v>
       </c>
     </row>
     <row r="106">
@@ -5573,7 +5573,7 @@
         </is>
       </c>
       <c r="P106" t="n">
-        <v>5928896383</v>
+        <v>3832092981</v>
       </c>
     </row>
     <row r="107">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="P107" t="n">
-        <v>7760327412</v>
+        <v>7341642547</v>
       </c>
     </row>
     <row r="108">
@@ -5669,7 +5669,7 @@
         </is>
       </c>
       <c r="P108" t="n">
-        <v>6324772338</v>
+        <v>3296395311</v>
       </c>
     </row>
     <row r="109">
@@ -5717,7 +5717,7 @@
         </is>
       </c>
       <c r="P109" t="n">
-        <v>445742618</v>
+        <v>2503242654</v>
       </c>
     </row>
     <row r="110">
@@ -5765,7 +5765,7 @@
         </is>
       </c>
       <c r="P110" t="n">
-        <v>3605975325</v>
+        <v>5912939884</v>
       </c>
     </row>
     <row r="111">
@@ -5813,7 +5813,7 @@
         </is>
       </c>
       <c r="P111" t="n">
-        <v>4482938678</v>
+        <v>1432600285</v>
       </c>
     </row>
     <row r="112">
@@ -5861,7 +5861,7 @@
         </is>
       </c>
       <c r="P112" t="n">
-        <v>428541769</v>
+        <v>1836221896</v>
       </c>
     </row>
     <row r="113">
@@ -5909,7 +5909,7 @@
         </is>
       </c>
       <c r="P113" t="n">
-        <v>1239194796</v>
+        <v>1805856923</v>
       </c>
     </row>
     <row r="114">
@@ -5957,7 +5957,7 @@
         </is>
       </c>
       <c r="P114" t="n">
-        <v>2285616938</v>
+        <v>1448657883</v>
       </c>
     </row>
     <row r="115">
@@ -6005,7 +6005,7 @@
         </is>
       </c>
       <c r="P115" t="n">
-        <v>5717938636</v>
+        <v>6691652137</v>
       </c>
     </row>
     <row r="116">
@@ -6053,7 +6053,7 @@
         </is>
       </c>
       <c r="P116" t="n">
-        <v>9857310134</v>
+        <v>337309053</v>
       </c>
     </row>
     <row r="117">
@@ -6101,7 +6101,7 @@
         </is>
       </c>
       <c r="P117" t="n">
-        <v>8663442829</v>
+        <v>358309356</v>
       </c>
     </row>
     <row r="118">
@@ -6149,7 +6149,7 @@
         </is>
       </c>
       <c r="P118" t="n">
-        <v>5656142367</v>
+        <v>1482234142</v>
       </c>
     </row>
     <row r="119">
@@ -6197,7 +6197,7 @@
         </is>
       </c>
       <c r="P119" t="n">
-        <v>856019006</v>
+        <v>5121989438</v>
       </c>
     </row>
     <row r="120">
@@ -6245,7 +6245,7 @@
         </is>
       </c>
       <c r="P120" t="n">
-        <v>3406699529</v>
+        <v>9539230427</v>
       </c>
     </row>
     <row r="121">
@@ -6293,7 +6293,7 @@
         </is>
       </c>
       <c r="P121" t="n">
-        <v>8378501899</v>
+        <v>3036425291</v>
       </c>
     </row>
     <row r="122">
@@ -6341,7 +6341,7 @@
         </is>
       </c>
       <c r="P122" t="n">
-        <v>3685906384</v>
+        <v>413405663</v>
       </c>
     </row>
     <row r="123">
@@ -6389,7 +6389,7 @@
         </is>
       </c>
       <c r="P123" t="n">
-        <v>5158335401</v>
+        <v>7295749053</v>
       </c>
     </row>
     <row r="124">
@@ -6437,7 +6437,7 @@
         </is>
       </c>
       <c r="P124" t="n">
-        <v>7663608412</v>
+        <v>7708372183</v>
       </c>
     </row>
     <row r="125">
@@ -6487,7 +6487,7 @@
         </is>
       </c>
       <c r="P125" t="n">
-        <v>1048620369</v>
+        <v>880609526</v>
       </c>
     </row>
     <row r="126">
@@ -6535,7 +6535,7 @@
         </is>
       </c>
       <c r="P126" t="n">
-        <v>8069674548</v>
+        <v>247513468</v>
       </c>
     </row>
     <row r="127">
@@ -6583,7 +6583,7 @@
         </is>
       </c>
       <c r="P127" t="n">
-        <v>7563635945</v>
+        <v>3097813332</v>
       </c>
     </row>
     <row r="128">
@@ -6631,7 +6631,7 @@
         </is>
       </c>
       <c r="P128" t="n">
-        <v>5528583714</v>
+        <v>5911362196</v>
       </c>
     </row>
     <row r="129">
@@ -6679,7 +6679,7 @@
         </is>
       </c>
       <c r="P129" t="n">
-        <v>9916952289</v>
+        <v>8441338010</v>
       </c>
     </row>
     <row r="130">
@@ -6727,7 +6727,7 @@
         </is>
       </c>
       <c r="P130" t="n">
-        <v>464803465</v>
+        <v>2431975011</v>
       </c>
     </row>
     <row r="131">
@@ -6775,7 +6775,7 @@
         </is>
       </c>
       <c r="P131" t="n">
-        <v>4889271002</v>
+        <v>7535990885</v>
       </c>
     </row>
     <row r="132">
@@ -6823,7 +6823,7 @@
         </is>
       </c>
       <c r="P132" t="n">
-        <v>8457874536</v>
+        <v>7095578700</v>
       </c>
     </row>
     <row r="133">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="P133" t="n">
-        <v>5388592121</v>
+        <v>5081225551</v>
       </c>
     </row>
     <row r="134">
@@ -6919,7 +6919,7 @@
         </is>
       </c>
       <c r="P134" t="n">
-        <v>4509509061</v>
+        <v>9906744909</v>
       </c>
     </row>
     <row r="135">
@@ -6967,7 +6967,7 @@
         </is>
       </c>
       <c r="P135" t="n">
-        <v>3486696623</v>
+        <v>8287135382</v>
       </c>
     </row>
     <row r="136">
@@ -7015,7 +7015,7 @@
         </is>
       </c>
       <c r="P136" t="n">
-        <v>8600618862</v>
+        <v>9062500427</v>
       </c>
     </row>
     <row r="137">
@@ -7065,7 +7065,7 @@
         </is>
       </c>
       <c r="P137" t="n">
-        <v>8670817970</v>
+        <v>1360887642</v>
       </c>
     </row>
     <row r="138">
@@ -7113,7 +7113,7 @@
         </is>
       </c>
       <c r="P138" t="n">
-        <v>2859048090</v>
+        <v>3366632142</v>
       </c>
     </row>
     <row r="139">
@@ -7161,7 +7161,7 @@
         </is>
       </c>
       <c r="P139" t="n">
-        <v>6157934021</v>
+        <v>3038530089</v>
       </c>
     </row>
     <row r="140">
@@ -7209,7 +7209,7 @@
         </is>
       </c>
       <c r="P140" t="n">
-        <v>8316217547</v>
+        <v>2786437939</v>
       </c>
     </row>
     <row r="141">
@@ -7257,7 +7257,7 @@
         </is>
       </c>
       <c r="P141" t="n">
-        <v>8032579471</v>
+        <v>5139833528</v>
       </c>
     </row>
     <row r="142">
@@ -7305,7 +7305,7 @@
         </is>
       </c>
       <c r="P142" t="n">
-        <v>6787799159</v>
+        <v>6861773216</v>
       </c>
     </row>
     <row r="143">
@@ -7351,7 +7351,7 @@
         </is>
       </c>
       <c r="P143" t="n">
-        <v>4237984442</v>
+        <v>3397576266</v>
       </c>
     </row>
     <row r="144">
@@ -7399,7 +7399,7 @@
         </is>
       </c>
       <c r="P144" t="n">
-        <v>3358852919</v>
+        <v>159427336</v>
       </c>
     </row>
     <row r="145">
@@ -7449,7 +7449,7 @@
         </is>
       </c>
       <c r="P145" t="n">
-        <v>3169978600</v>
+        <v>6892106111</v>
       </c>
     </row>
     <row r="146">
@@ -7497,7 +7497,7 @@
         </is>
       </c>
       <c r="P146" t="n">
-        <v>4791931198</v>
+        <v>5892516295</v>
       </c>
     </row>
     <row r="147">
@@ -7545,7 +7545,7 @@
         </is>
       </c>
       <c r="P147" t="n">
-        <v>2787491067</v>
+        <v>2525418399</v>
       </c>
     </row>
     <row r="148">
@@ -7593,7 +7593,7 @@
         </is>
       </c>
       <c r="P148" t="n">
-        <v>4860445860</v>
+        <v>6111988316</v>
       </c>
     </row>
     <row r="149">
@@ -7641,7 +7641,7 @@
         </is>
       </c>
       <c r="P149" t="n">
-        <v>3150307655</v>
+        <v>4949569107</v>
       </c>
     </row>
     <row r="150">
@@ -7689,7 +7689,7 @@
         </is>
       </c>
       <c r="P150" t="n">
-        <v>5788340040</v>
+        <v>361558818</v>
       </c>
     </row>
     <row r="151">
@@ -7739,7 +7739,7 @@
         </is>
       </c>
       <c r="P151" t="n">
-        <v>5646332795</v>
+        <v>6233794637</v>
       </c>
     </row>
     <row r="152">
@@ -7789,7 +7789,7 @@
         </is>
       </c>
       <c r="P152" t="n">
-        <v>462330111</v>
+        <v>3665653286</v>
       </c>
     </row>
     <row r="153">
@@ -7837,7 +7837,7 @@
         </is>
       </c>
       <c r="P153" t="n">
-        <v>6087967439</v>
+        <v>4315332877</v>
       </c>
     </row>
     <row r="154">
@@ -7885,7 +7885,7 @@
         </is>
       </c>
       <c r="P154" t="n">
-        <v>807071559</v>
+        <v>7534293269</v>
       </c>
     </row>
     <row r="155">
@@ -7933,7 +7933,7 @@
         </is>
       </c>
       <c r="P155" t="n">
-        <v>1188657008</v>
+        <v>1605482876</v>
       </c>
     </row>
     <row r="156">
@@ -7981,7 +7981,7 @@
         </is>
       </c>
       <c r="P156" t="n">
-        <v>7357029664</v>
+        <v>8422384973</v>
       </c>
     </row>
     <row r="157">
@@ -8029,7 +8029,7 @@
         </is>
       </c>
       <c r="P157" t="n">
-        <v>2162185304</v>
+        <v>1109095253</v>
       </c>
     </row>
     <row r="158">
@@ -8077,7 +8077,7 @@
         </is>
       </c>
       <c r="P158" t="n">
-        <v>4202759118</v>
+        <v>8451934092</v>
       </c>
     </row>
     <row r="159">
@@ -8125,7 +8125,7 @@
         </is>
       </c>
       <c r="P159" t="n">
-        <v>4485800318</v>
+        <v>8060492165</v>
       </c>
     </row>
     <row r="160">
@@ -8173,7 +8173,7 @@
         </is>
       </c>
       <c r="P160" t="n">
-        <v>564295866</v>
+        <v>7952074242</v>
       </c>
     </row>
     <row r="161">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="P161" t="n">
-        <v>3862109362</v>
+        <v>5236578294</v>
       </c>
     </row>
     <row r="162">
@@ -8269,7 +8269,7 @@
         </is>
       </c>
       <c r="P162" t="n">
-        <v>7272138166</v>
+        <v>4953512521</v>
       </c>
     </row>
     <row r="163">
@@ -8317,7 +8317,7 @@
         </is>
       </c>
       <c r="P163" t="n">
-        <v>9967158870</v>
+        <v>6985811473</v>
       </c>
     </row>
     <row r="164">
@@ -8365,7 +8365,7 @@
         </is>
       </c>
       <c r="P164" t="n">
-        <v>3717918508</v>
+        <v>6662281873</v>
       </c>
     </row>
     <row r="165">
@@ -8413,7 +8413,7 @@
         </is>
       </c>
       <c r="P165" t="n">
-        <v>7666124559</v>
+        <v>5560974494</v>
       </c>
     </row>
     <row r="166">
@@ -8461,7 +8461,7 @@
         </is>
       </c>
       <c r="P166" t="n">
-        <v>5753635818</v>
+        <v>2911420020</v>
       </c>
     </row>
     <row r="167">
@@ -8509,7 +8509,7 @@
         </is>
       </c>
       <c r="P167" t="n">
-        <v>6147680752</v>
+        <v>608730337</v>
       </c>
     </row>
     <row r="168">
@@ -8557,7 +8557,7 @@
         </is>
       </c>
       <c r="P168" t="n">
-        <v>6151109418</v>
+        <v>7677562787</v>
       </c>
     </row>
     <row r="169">
@@ -8605,7 +8605,7 @@
         </is>
       </c>
       <c r="P169" t="n">
-        <v>6975614689</v>
+        <v>5874742826</v>
       </c>
     </row>
     <row r="170">
@@ -8653,7 +8653,7 @@
         </is>
       </c>
       <c r="P170" t="n">
-        <v>6399309634</v>
+        <v>8849406507</v>
       </c>
     </row>
     <row r="171">
@@ -8701,7 +8701,7 @@
         </is>
       </c>
       <c r="P171" t="n">
-        <v>5826588353</v>
+        <v>9093168022</v>
       </c>
     </row>
     <row r="172">
@@ -8749,7 +8749,7 @@
         </is>
       </c>
       <c r="P172" t="n">
-        <v>5316392708</v>
+        <v>2085974963</v>
       </c>
     </row>
     <row r="173">
@@ -8799,7 +8799,7 @@
         </is>
       </c>
       <c r="P173" t="n">
-        <v>4823207173</v>
+        <v>7593239423</v>
       </c>
     </row>
     <row r="174">
@@ -8847,7 +8847,7 @@
         </is>
       </c>
       <c r="P174" t="n">
-        <v>494636536</v>
+        <v>3618978974</v>
       </c>
     </row>
     <row r="175">
@@ -8895,7 +8895,7 @@
         </is>
       </c>
       <c r="P175" t="n">
-        <v>7666915283</v>
+        <v>7385617285</v>
       </c>
     </row>
     <row r="176">
@@ -8945,7 +8945,7 @@
         </is>
       </c>
       <c r="P176" t="n">
-        <v>6016855780</v>
+        <v>8266403410</v>
       </c>
     </row>
     <row r="177">
@@ -8993,7 +8993,7 @@
         </is>
       </c>
       <c r="P177" t="n">
-        <v>6793013694</v>
+        <v>3709753054</v>
       </c>
     </row>
     <row r="178">
@@ -9041,7 +9041,7 @@
         </is>
       </c>
       <c r="P178" t="n">
-        <v>4662118089</v>
+        <v>5897478856</v>
       </c>
     </row>
     <row r="179">
@@ -9089,7 +9089,7 @@
         </is>
       </c>
       <c r="P179" t="n">
-        <v>6805021347</v>
+        <v>7827484905</v>
       </c>
     </row>
     <row r="180">
@@ -9137,7 +9137,7 @@
         </is>
       </c>
       <c r="P180" t="n">
-        <v>7310005128</v>
+        <v>3612832360</v>
       </c>
     </row>
     <row r="181">
@@ -9185,7 +9185,7 @@
         </is>
       </c>
       <c r="P181" t="n">
-        <v>5033909272</v>
+        <v>124113546</v>
       </c>
     </row>
     <row r="182">
@@ -9233,7 +9233,7 @@
         </is>
       </c>
       <c r="P182" t="n">
-        <v>5578043758</v>
+        <v>3345948918</v>
       </c>
     </row>
     <row r="183">
@@ -9281,7 +9281,7 @@
         </is>
       </c>
       <c r="P183" t="n">
-        <v>2969957266</v>
+        <v>6744925096</v>
       </c>
     </row>
     <row r="184">
@@ -9329,7 +9329,7 @@
         </is>
       </c>
       <c r="P184" t="n">
-        <v>7652772296</v>
+        <v>4178647602</v>
       </c>
     </row>
     <row r="185">
@@ -9377,7 +9377,7 @@
         </is>
       </c>
       <c r="P185" t="n">
-        <v>2793896580</v>
+        <v>7598319675</v>
       </c>
     </row>
     <row r="186">
@@ -9425,7 +9425,7 @@
         </is>
       </c>
       <c r="P186" t="n">
-        <v>736048578</v>
+        <v>6318886647</v>
       </c>
     </row>
     <row r="187">
@@ -9473,7 +9473,7 @@
         </is>
       </c>
       <c r="P187" t="n">
-        <v>6801708393</v>
+        <v>3183132458</v>
       </c>
     </row>
     <row r="188">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="P188" t="n">
-        <v>3946294399</v>
+        <v>9852497858</v>
       </c>
     </row>
     <row r="189">
@@ -9569,7 +9569,7 @@
         </is>
       </c>
       <c r="P189" t="n">
-        <v>1680194104</v>
+        <v>3285383087</v>
       </c>
     </row>
     <row r="190">
@@ -9617,7 +9617,7 @@
         </is>
       </c>
       <c r="P190" t="n">
-        <v>9307060057</v>
+        <v>6070577814</v>
       </c>
     </row>
     <row r="191">
@@ -9665,7 +9665,7 @@
         </is>
       </c>
       <c r="P191" t="n">
-        <v>6260912018</v>
+        <v>2249968380</v>
       </c>
     </row>
     <row r="192">
@@ -9713,7 +9713,7 @@
         </is>
       </c>
       <c r="P192" t="n">
-        <v>1080200976</v>
+        <v>3652304570</v>
       </c>
     </row>
     <row r="193">
@@ -9761,7 +9761,7 @@
         </is>
       </c>
       <c r="P193" t="n">
-        <v>6565579852</v>
+        <v>9044524288</v>
       </c>
     </row>
     <row r="194">
@@ -9809,7 +9809,7 @@
         </is>
       </c>
       <c r="P194" t="n">
-        <v>506384601</v>
+        <v>205150421</v>
       </c>
     </row>
     <row r="195">
@@ -9859,7 +9859,7 @@
         </is>
       </c>
       <c r="P195" t="n">
-        <v>6912977095</v>
+        <v>3099843974</v>
       </c>
     </row>
     <row r="196">
@@ -9907,7 +9907,7 @@
         </is>
       </c>
       <c r="P196" t="n">
-        <v>9016258265</v>
+        <v>5207961977</v>
       </c>
     </row>
     <row r="197">
@@ -9955,7 +9955,7 @@
         </is>
       </c>
       <c r="P197" t="n">
-        <v>6496617713</v>
+        <v>3466748917</v>
       </c>
     </row>
     <row r="198">
@@ -10003,7 +10003,7 @@
         </is>
       </c>
       <c r="P198" t="n">
-        <v>5082000109</v>
+        <v>3688519928</v>
       </c>
     </row>
     <row r="199">
@@ -10051,7 +10051,7 @@
         </is>
       </c>
       <c r="P199" t="n">
-        <v>3831585605</v>
+        <v>1058884537</v>
       </c>
     </row>
     <row r="200">
@@ -10099,7 +10099,7 @@
         </is>
       </c>
       <c r="P200" t="n">
-        <v>9384770539</v>
+        <v>2226746136</v>
       </c>
     </row>
     <row r="201">
@@ -10147,7 +10147,7 @@
         </is>
       </c>
       <c r="P201" t="n">
-        <v>775463826</v>
+        <v>6764929955</v>
       </c>
     </row>
     <row r="202">
@@ -10195,7 +10195,7 @@
         </is>
       </c>
       <c r="P202" t="n">
-        <v>3096792074</v>
+        <v>7436093697</v>
       </c>
     </row>
     <row r="203">
@@ -10243,7 +10243,7 @@
         </is>
       </c>
       <c r="P203" t="n">
-        <v>5387613528</v>
+        <v>1297772918</v>
       </c>
     </row>
     <row r="204">
@@ -10293,7 +10293,7 @@
         </is>
       </c>
       <c r="P204" t="n">
-        <v>1117487754</v>
+        <v>2273771093</v>
       </c>
     </row>
     <row r="205">
@@ -10341,7 +10341,7 @@
         </is>
       </c>
       <c r="P205" t="n">
-        <v>9019527397</v>
+        <v>806988748</v>
       </c>
     </row>
     <row r="206">
@@ -10389,7 +10389,7 @@
         </is>
       </c>
       <c r="P206" t="n">
-        <v>1722133452</v>
+        <v>9289165007</v>
       </c>
     </row>
     <row r="207">
@@ -10437,7 +10437,7 @@
         </is>
       </c>
       <c r="P207" t="n">
-        <v>6372574434</v>
+        <v>8555291411</v>
       </c>
     </row>
     <row r="208">
@@ -10485,7 +10485,7 @@
         </is>
       </c>
       <c r="P208" t="n">
-        <v>5116929401</v>
+        <v>3047405028</v>
       </c>
     </row>
     <row r="209">
@@ -10533,7 +10533,7 @@
         </is>
       </c>
       <c r="P209" t="n">
-        <v>6395346843</v>
+        <v>6283890338</v>
       </c>
     </row>
     <row r="210">
@@ -10581,7 +10581,7 @@
         </is>
       </c>
       <c r="P210" t="n">
-        <v>7022184641</v>
+        <v>480088876</v>
       </c>
     </row>
     <row r="211">
@@ -10629,7 +10629,7 @@
         </is>
       </c>
       <c r="P211" t="n">
-        <v>6097623522</v>
+        <v>5778867696</v>
       </c>
     </row>
     <row r="212">
@@ -10677,7 +10677,7 @@
         </is>
       </c>
       <c r="P212" t="n">
-        <v>3454331799</v>
+        <v>2555601620</v>
       </c>
     </row>
     <row r="213">
@@ -10725,7 +10725,7 @@
         </is>
       </c>
       <c r="P213" t="n">
-        <v>4624368634</v>
+        <v>3626451436</v>
       </c>
     </row>
     <row r="214">
@@ -10777,7 +10777,7 @@
         </is>
       </c>
       <c r="P214" t="n">
-        <v>3892781633</v>
+        <v>1986998108</v>
       </c>
     </row>
     <row r="215">
@@ -10825,7 +10825,7 @@
         </is>
       </c>
       <c r="P215" t="n">
-        <v>7097313951</v>
+        <v>6542002857</v>
       </c>
     </row>
     <row r="216">
@@ -10873,7 +10873,7 @@
         </is>
       </c>
       <c r="P216" t="n">
-        <v>9416310493</v>
+        <v>82218259</v>
       </c>
     </row>
     <row r="217">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="P217" t="n">
-        <v>6900473300</v>
+        <v>1941921133</v>
       </c>
     </row>
     <row r="218">
@@ -10969,7 +10969,7 @@
         </is>
       </c>
       <c r="P218" t="n">
-        <v>1089083249</v>
+        <v>197164212</v>
       </c>
     </row>
     <row r="219">
@@ -11017,7 +11017,7 @@
         </is>
       </c>
       <c r="P219" t="n">
-        <v>9959318631</v>
+        <v>2860208476</v>
       </c>
     </row>
     <row r="220">
@@ -11065,7 +11065,7 @@
         </is>
       </c>
       <c r="P220" t="n">
-        <v>9792483989</v>
+        <v>323495955</v>
       </c>
     </row>
     <row r="221">
@@ -11113,7 +11113,7 @@
         </is>
       </c>
       <c r="P221" t="n">
-        <v>6112873177</v>
+        <v>3722555954</v>
       </c>
     </row>
     <row r="222">
@@ -11161,7 +11161,7 @@
         </is>
       </c>
       <c r="P222" t="n">
-        <v>8786425835</v>
+        <v>6254201071</v>
       </c>
     </row>
     <row r="223">
@@ -11209,7 +11209,7 @@
         </is>
       </c>
       <c r="P223" t="n">
-        <v>5116594570</v>
+        <v>4571289216</v>
       </c>
     </row>
     <row r="224">
@@ -11257,7 +11257,7 @@
         </is>
       </c>
       <c r="P224" t="n">
-        <v>5031531955</v>
+        <v>7730864433</v>
       </c>
     </row>
     <row r="225">
@@ -11305,7 +11305,7 @@
         </is>
       </c>
       <c r="P225" t="n">
-        <v>5765305049</v>
+        <v>6632476448</v>
       </c>
     </row>
     <row r="226">
@@ -11353,7 +11353,7 @@
         </is>
       </c>
       <c r="P226" t="n">
-        <v>3222955464</v>
+        <v>2327491670</v>
       </c>
     </row>
     <row r="227">
@@ -11401,7 +11401,7 @@
         </is>
       </c>
       <c r="P227" t="n">
-        <v>8699927789</v>
+        <v>2630778838</v>
       </c>
     </row>
     <row r="228">
@@ -11449,7 +11449,7 @@
         </is>
       </c>
       <c r="P228" t="n">
-        <v>4923071953</v>
+        <v>2073295792</v>
       </c>
     </row>
     <row r="229">
@@ -11497,7 +11497,7 @@
         </is>
       </c>
       <c r="P229" t="n">
-        <v>2583275183</v>
+        <v>5443470567</v>
       </c>
     </row>
     <row r="230">
@@ -11545,7 +11545,7 @@
         </is>
       </c>
       <c r="P230" t="n">
-        <v>6699103761</v>
+        <v>7769055623</v>
       </c>
     </row>
     <row r="231">
@@ -11593,7 +11593,7 @@
         </is>
       </c>
       <c r="P231" t="n">
-        <v>2942414143</v>
+        <v>8420386063</v>
       </c>
     </row>
     <row r="232">
@@ -11641,7 +11641,7 @@
         </is>
       </c>
       <c r="P232" t="n">
-        <v>5024887665</v>
+        <v>6375641977</v>
       </c>
     </row>
     <row r="233">
@@ -11689,7 +11689,7 @@
         </is>
       </c>
       <c r="P233" t="n">
-        <v>253885731</v>
+        <v>3054760580</v>
       </c>
     </row>
     <row r="234">
@@ -11737,7 +11737,7 @@
         </is>
       </c>
       <c r="P234" t="n">
-        <v>3048889059</v>
+        <v>6188434451</v>
       </c>
     </row>
     <row r="235">
@@ -11785,7 +11785,7 @@
         </is>
       </c>
       <c r="P235" t="n">
-        <v>8515027693</v>
+        <v>6616780849</v>
       </c>
     </row>
     <row r="236">
@@ -11833,7 +11833,7 @@
         </is>
       </c>
       <c r="P236" t="n">
-        <v>5953732871</v>
+        <v>7593820141</v>
       </c>
     </row>
     <row r="237">
@@ -11881,7 +11881,7 @@
         </is>
       </c>
       <c r="P237" t="n">
-        <v>7078746005</v>
+        <v>7397899250</v>
       </c>
     </row>
     <row r="238">
@@ -11929,7 +11929,7 @@
         </is>
       </c>
       <c r="P238" t="n">
-        <v>5251596578</v>
+        <v>6583614836</v>
       </c>
     </row>
     <row r="239">
@@ -11977,7 +11977,7 @@
         </is>
       </c>
       <c r="P239" t="n">
-        <v>8650259117</v>
+        <v>2147919342</v>
       </c>
     </row>
     <row r="240">
@@ -12025,7 +12025,7 @@
         </is>
       </c>
       <c r="P240" t="n">
-        <v>2518160398</v>
+        <v>9475616586</v>
       </c>
     </row>
     <row r="241">
@@ -12073,7 +12073,7 @@
         </is>
       </c>
       <c r="P241" t="n">
-        <v>2124728902</v>
+        <v>1726502098</v>
       </c>
     </row>
     <row r="242">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="P242" t="n">
-        <v>7732861015</v>
+        <v>5211738144</v>
       </c>
     </row>
     <row r="243">
@@ -12169,7 +12169,7 @@
         </is>
       </c>
       <c r="P243" t="n">
-        <v>595187601</v>
+        <v>2306129928</v>
       </c>
     </row>
     <row r="244">
@@ -12217,7 +12217,7 @@
         </is>
       </c>
       <c r="P244" t="n">
-        <v>6977496675</v>
+        <v>8369313150</v>
       </c>
     </row>
     <row r="245">
@@ -12265,7 +12265,7 @@
         </is>
       </c>
       <c r="P245" t="n">
-        <v>2877926999</v>
+        <v>5673340034</v>
       </c>
     </row>
     <row r="246">
@@ -12313,7 +12313,7 @@
         </is>
       </c>
       <c r="P246" t="n">
-        <v>953717109</v>
+        <v>457462246</v>
       </c>
     </row>
     <row r="247">
@@ -12361,7 +12361,7 @@
         </is>
       </c>
       <c r="P247" t="n">
-        <v>4584714796</v>
+        <v>2720765653</v>
       </c>
     </row>
     <row r="248">
@@ -12409,7 +12409,7 @@
         </is>
       </c>
       <c r="P248" t="n">
-        <v>1518708576</v>
+        <v>7940369961</v>
       </c>
     </row>
     <row r="249">
@@ -12457,7 +12457,7 @@
         </is>
       </c>
       <c r="P249" t="n">
-        <v>9766253468</v>
+        <v>8484198649</v>
       </c>
     </row>
     <row r="250">
@@ -12505,7 +12505,7 @@
         </is>
       </c>
       <c r="P250" t="n">
-        <v>2147195545</v>
+        <v>8485079585</v>
       </c>
     </row>
     <row r="251">
@@ -12553,7 +12553,7 @@
         </is>
       </c>
       <c r="P251" t="n">
-        <v>8525636657</v>
+        <v>1886718807</v>
       </c>
     </row>
     <row r="252">
@@ -12601,7 +12601,7 @@
         </is>
       </c>
       <c r="P252" t="n">
-        <v>3672093039</v>
+        <v>7037240973</v>
       </c>
     </row>
     <row r="253">
@@ -12649,7 +12649,7 @@
         </is>
       </c>
       <c r="P253" t="n">
-        <v>2893658525</v>
+        <v>6210308613</v>
       </c>
     </row>
     <row r="254">
@@ -12697,7 +12697,7 @@
         </is>
       </c>
       <c r="P254" t="n">
-        <v>6329921218</v>
+        <v>6435197639</v>
       </c>
     </row>
     <row r="255">
@@ -12745,7 +12745,7 @@
         </is>
       </c>
       <c r="P255" t="n">
-        <v>4101987782</v>
+        <v>9978917113</v>
       </c>
     </row>
     <row r="256">
@@ -12793,7 +12793,7 @@
         </is>
       </c>
       <c r="P256" t="n">
-        <v>1784931824</v>
+        <v>4337129966</v>
       </c>
     </row>
     <row r="257">
@@ -12841,7 +12841,7 @@
         </is>
       </c>
       <c r="P257" t="n">
-        <v>9910564413</v>
+        <v>1657087908</v>
       </c>
     </row>
     <row r="258">
@@ -12889,7 +12889,7 @@
         </is>
       </c>
       <c r="P258" t="n">
-        <v>9698885733</v>
+        <v>6478216742</v>
       </c>
     </row>
     <row r="259">
@@ -12937,7 +12937,7 @@
         </is>
       </c>
       <c r="P259" t="n">
-        <v>3473121708</v>
+        <v>3961770998</v>
       </c>
     </row>
     <row r="260">
@@ -12985,7 +12985,7 @@
         </is>
       </c>
       <c r="P260" t="n">
-        <v>5262243834</v>
+        <v>1526006968</v>
       </c>
     </row>
     <row r="261">
@@ -13033,7 +13033,7 @@
         </is>
       </c>
       <c r="P261" t="n">
-        <v>6425610207</v>
+        <v>5375531205</v>
       </c>
     </row>
     <row r="262">
@@ -13081,7 +13081,7 @@
         </is>
       </c>
       <c r="P262" t="n">
-        <v>7499641124</v>
+        <v>9709969644</v>
       </c>
     </row>
     <row r="263">
@@ -13129,7 +13129,7 @@
         </is>
       </c>
       <c r="P263" t="n">
-        <v>3957606818</v>
+        <v>7660238556</v>
       </c>
     </row>
     <row r="264">
@@ -13177,7 +13177,7 @@
         </is>
       </c>
       <c r="P264" t="n">
-        <v>7882388589</v>
+        <v>5638278413</v>
       </c>
     </row>
     <row r="265">
@@ -13225,7 +13225,7 @@
         </is>
       </c>
       <c r="P265" t="n">
-        <v>9995698985</v>
+        <v>781093891</v>
       </c>
     </row>
     <row r="266">
@@ -13273,7 +13273,7 @@
         </is>
       </c>
       <c r="P266" t="n">
-        <v>6400711830</v>
+        <v>8764628926</v>
       </c>
     </row>
     <row r="267">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="P267" t="n">
-        <v>9915778539</v>
+        <v>3878926623</v>
       </c>
     </row>
     <row r="268">
@@ -13369,7 +13369,7 @@
         </is>
       </c>
       <c r="P268" t="n">
-        <v>4797005457</v>
+        <v>9914837230</v>
       </c>
     </row>
     <row r="269">
@@ -13417,7 +13417,7 @@
         </is>
       </c>
       <c r="P269" t="n">
-        <v>1430634306</v>
+        <v>8217932406</v>
       </c>
     </row>
     <row r="270">
@@ -13465,7 +13465,7 @@
         </is>
       </c>
       <c r="P270" t="n">
-        <v>8115763659</v>
+        <v>8158004709</v>
       </c>
     </row>
     <row r="271">
@@ -13513,7 +13513,7 @@
         </is>
       </c>
       <c r="P271" t="n">
-        <v>5694607051</v>
+        <v>5162142308</v>
       </c>
     </row>
     <row r="272">
@@ -13561,7 +13561,7 @@
         </is>
       </c>
       <c r="P272" t="n">
-        <v>4101087209</v>
+        <v>1675477882</v>
       </c>
     </row>
     <row r="273">
@@ -13609,7 +13609,7 @@
         </is>
       </c>
       <c r="P273" t="n">
-        <v>493327845</v>
+        <v>2482401239</v>
       </c>
     </row>
     <row r="274">
@@ -13657,7 +13657,7 @@
         </is>
       </c>
       <c r="P274" t="n">
-        <v>428447331</v>
+        <v>6727210030</v>
       </c>
     </row>
     <row r="275">
@@ -13705,7 +13705,7 @@
         </is>
       </c>
       <c r="P275" t="n">
-        <v>9250958683</v>
+        <v>6118648435</v>
       </c>
     </row>
     <row r="276">
@@ -13753,7 +13753,7 @@
         </is>
       </c>
       <c r="P276" t="n">
-        <v>622713232</v>
+        <v>224732407</v>
       </c>
     </row>
     <row r="277">
@@ -13801,7 +13801,7 @@
         </is>
       </c>
       <c r="P277" t="n">
-        <v>6062677923</v>
+        <v>8610777489</v>
       </c>
     </row>
     <row r="278">
@@ -13849,7 +13849,7 @@
         </is>
       </c>
       <c r="P278" t="n">
-        <v>1890795505</v>
+        <v>5093996206</v>
       </c>
     </row>
     <row r="279">
@@ -13897,7 +13897,7 @@
         </is>
       </c>
       <c r="P279" t="n">
-        <v>3205847229</v>
+        <v>5863916964</v>
       </c>
     </row>
     <row r="280">
@@ -13945,7 +13945,7 @@
         </is>
       </c>
       <c r="P280" t="n">
-        <v>5594041302</v>
+        <v>4127290991</v>
       </c>
     </row>
     <row r="281">
@@ -13993,7 +13993,7 @@
         </is>
       </c>
       <c r="P281" t="n">
-        <v>5564908273</v>
+        <v>3347515881</v>
       </c>
     </row>
     <row r="282">
@@ -14041,7 +14041,7 @@
         </is>
       </c>
       <c r="P282" t="n">
-        <v>934866649</v>
+        <v>4992978864</v>
       </c>
     </row>
     <row r="283">
@@ -14089,7 +14089,7 @@
         </is>
       </c>
       <c r="P283" t="n">
-        <v>9697937060</v>
+        <v>2535648532</v>
       </c>
     </row>
     <row r="284">
@@ -14137,7 +14137,7 @@
         </is>
       </c>
       <c r="P284" t="n">
-        <v>458795579</v>
+        <v>8990014769</v>
       </c>
     </row>
     <row r="285">
@@ -14185,7 +14185,7 @@
         </is>
       </c>
       <c r="P285" t="n">
-        <v>8450953890</v>
+        <v>977363389</v>
       </c>
     </row>
     <row r="286">
@@ -14233,7 +14233,7 @@
         </is>
       </c>
       <c r="P286" t="n">
-        <v>1179470198</v>
+        <v>6984570046</v>
       </c>
     </row>
     <row r="287">
@@ -14281,7 +14281,7 @@
         </is>
       </c>
       <c r="P287" t="n">
-        <v>4813306433</v>
+        <v>8613919437</v>
       </c>
     </row>
     <row r="288">
@@ -14329,7 +14329,7 @@
         </is>
       </c>
       <c r="P288" t="n">
-        <v>5008111812</v>
+        <v>4959252358</v>
       </c>
     </row>
     <row r="289">
@@ -14377,7 +14377,7 @@
         </is>
       </c>
       <c r="P289" t="n">
-        <v>443322977</v>
+        <v>712012933</v>
       </c>
     </row>
     <row r="290">
@@ -14425,7 +14425,7 @@
         </is>
       </c>
       <c r="P290" t="n">
-        <v>1598978928</v>
+        <v>6202495508</v>
       </c>
     </row>
     <row r="291">
@@ -14473,7 +14473,7 @@
         </is>
       </c>
       <c r="P291" t="n">
-        <v>7205329037</v>
+        <v>7635525815</v>
       </c>
     </row>
     <row r="292">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="P292" t="n">
-        <v>177455337</v>
+        <v>7654632407</v>
       </c>
     </row>
     <row r="293">
@@ -14569,7 +14569,7 @@
         </is>
       </c>
       <c r="P293" t="n">
-        <v>2032077272</v>
+        <v>2742450412</v>
       </c>
     </row>
     <row r="294">
@@ -14617,7 +14617,7 @@
         </is>
       </c>
       <c r="P294" t="n">
-        <v>5809745234</v>
+        <v>4302241073</v>
       </c>
     </row>
     <row r="295">
@@ -14665,7 +14665,7 @@
         </is>
       </c>
       <c r="P295" t="n">
-        <v>1919684373</v>
+        <v>2602740397</v>
       </c>
     </row>
     <row r="296">
@@ -14713,7 +14713,7 @@
         </is>
       </c>
       <c r="P296" t="n">
-        <v>6275502124</v>
+        <v>2356712726</v>
       </c>
     </row>
     <row r="297">
@@ -14763,7 +14763,7 @@
         </is>
       </c>
       <c r="P297" t="n">
-        <v>4463063068</v>
+        <v>1310056571</v>
       </c>
     </row>
     <row r="298">
@@ -14811,7 +14811,7 @@
         </is>
       </c>
       <c r="P298" t="n">
-        <v>4913993390</v>
+        <v>3001427030</v>
       </c>
     </row>
     <row r="299">
@@ -14859,7 +14859,7 @@
         </is>
       </c>
       <c r="P299" t="n">
-        <v>1092657993</v>
+        <v>9997738406</v>
       </c>
     </row>
     <row r="300">
@@ -14907,7 +14907,7 @@
         </is>
       </c>
       <c r="P300" t="n">
-        <v>8383509482</v>
+        <v>190731294</v>
       </c>
     </row>
     <row r="301">
@@ -14955,7 +14955,7 @@
         </is>
       </c>
       <c r="P301" t="n">
-        <v>1069814785</v>
+        <v>6751410589</v>
       </c>
     </row>
     <row r="302">
@@ -15003,7 +15003,7 @@
         </is>
       </c>
       <c r="P302" t="n">
-        <v>7824120124</v>
+        <v>2906077910</v>
       </c>
     </row>
     <row r="303">
@@ -15051,7 +15051,7 @@
         </is>
       </c>
       <c r="P303" t="n">
-        <v>808410737</v>
+        <v>7787831158</v>
       </c>
     </row>
     <row r="304">
@@ -15099,7 +15099,7 @@
         </is>
       </c>
       <c r="P304" t="n">
-        <v>7075184257</v>
+        <v>666948643</v>
       </c>
     </row>
     <row r="305">
@@ -15149,7 +15149,7 @@
         </is>
       </c>
       <c r="P305" t="n">
-        <v>9341699334</v>
+        <v>5229646280</v>
       </c>
     </row>
     <row r="306">
@@ -15197,7 +15197,7 @@
         </is>
       </c>
       <c r="P306" t="n">
-        <v>9638022291</v>
+        <v>494444526</v>
       </c>
     </row>
     <row r="307">
@@ -15247,7 +15247,7 @@
         </is>
       </c>
       <c r="P307" t="n">
-        <v>3489861879</v>
+        <v>2673543103</v>
       </c>
     </row>
     <row r="308">
@@ -15295,7 +15295,7 @@
         </is>
       </c>
       <c r="P308" t="n">
-        <v>3290938398</v>
+        <v>6768104936</v>
       </c>
     </row>
     <row r="309">
@@ -15343,7 +15343,7 @@
         </is>
       </c>
       <c r="P309" t="n">
-        <v>888684055</v>
+        <v>7274628545</v>
       </c>
     </row>
     <row r="310">
@@ -15393,7 +15393,7 @@
         </is>
       </c>
       <c r="P310" t="n">
-        <v>8044036510</v>
+        <v>8202255906</v>
       </c>
     </row>
     <row r="311">
@@ -15441,7 +15441,7 @@
         </is>
       </c>
       <c r="P311" t="n">
-        <v>2820594194</v>
+        <v>2515574162</v>
       </c>
     </row>
     <row r="312">
@@ -15489,7 +15489,7 @@
         </is>
       </c>
       <c r="P312" t="n">
-        <v>1067758441</v>
+        <v>6437516351</v>
       </c>
     </row>
     <row r="313">
@@ -15537,7 +15537,7 @@
         </is>
       </c>
       <c r="P313" t="n">
-        <v>5059412007</v>
+        <v>7085869397</v>
       </c>
     </row>
     <row r="314">
@@ -15585,7 +15585,7 @@
         </is>
       </c>
       <c r="P314" t="n">
-        <v>5724671169</v>
+        <v>7402551196</v>
       </c>
     </row>
     <row r="315">
@@ -15633,7 +15633,7 @@
         </is>
       </c>
       <c r="P315" t="n">
-        <v>8188850604</v>
+        <v>2785079241</v>
       </c>
     </row>
     <row r="316">
@@ -15681,7 +15681,7 @@
         </is>
       </c>
       <c r="P316" t="n">
-        <v>3685782456</v>
+        <v>2553027637</v>
       </c>
     </row>
     <row r="317">
@@ -15729,7 +15729,7 @@
         </is>
       </c>
       <c r="P317" t="n">
-        <v>7372227629</v>
+        <v>2717792589</v>
       </c>
     </row>
     <row r="318">
@@ -15779,7 +15779,7 @@
         </is>
       </c>
       <c r="P318" t="n">
-        <v>7209486142</v>
+        <v>3379238396</v>
       </c>
     </row>
     <row r="319">
@@ -15827,7 +15827,7 @@
         </is>
       </c>
       <c r="P319" t="n">
-        <v>1371815261</v>
+        <v>5412011873</v>
       </c>
     </row>
     <row r="320">
@@ -15875,7 +15875,7 @@
         </is>
       </c>
       <c r="P320" t="n">
-        <v>5957951682</v>
+        <v>8784976560</v>
       </c>
     </row>
     <row r="321">
@@ -15925,7 +15925,7 @@
         </is>
       </c>
       <c r="P321" t="n">
-        <v>3152405958</v>
+        <v>3609055252</v>
       </c>
     </row>
     <row r="322">
@@ -15973,7 +15973,7 @@
         </is>
       </c>
       <c r="P322" t="n">
-        <v>7180147377</v>
+        <v>4087453471</v>
       </c>
     </row>
     <row r="323">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="P323" t="n">
-        <v>8001291765</v>
+        <v>9399748326</v>
       </c>
     </row>
     <row r="324">
@@ -16069,7 +16069,7 @@
         </is>
       </c>
       <c r="P324" t="n">
-        <v>3931347663</v>
+        <v>1572348165</v>
       </c>
     </row>
     <row r="325">
@@ -16117,7 +16117,7 @@
         </is>
       </c>
       <c r="P325" t="n">
-        <v>4263368331</v>
+        <v>5780415130</v>
       </c>
     </row>
     <row r="326">
@@ -16165,7 +16165,7 @@
         </is>
       </c>
       <c r="P326" t="n">
-        <v>6978013819</v>
+        <v>9624688632</v>
       </c>
     </row>
     <row r="327">
@@ -16213,7 +16213,7 @@
         </is>
       </c>
       <c r="P327" t="n">
-        <v>5792005695</v>
+        <v>8928987800</v>
       </c>
     </row>
     <row r="328">
@@ -16261,7 +16261,7 @@
         </is>
       </c>
       <c r="P328" t="n">
-        <v>9793836573</v>
+        <v>1352604675</v>
       </c>
     </row>
     <row r="329">
@@ -16309,7 +16309,7 @@
         </is>
       </c>
       <c r="P329" t="n">
-        <v>1034598701</v>
+        <v>9147845203</v>
       </c>
     </row>
     <row r="330">
@@ -16357,7 +16357,7 @@
         </is>
       </c>
       <c r="P330" t="n">
-        <v>95337941</v>
+        <v>3929530340</v>
       </c>
     </row>
     <row r="331">
@@ -16405,7 +16405,7 @@
         </is>
       </c>
       <c r="P331" t="n">
-        <v>8375100701</v>
+        <v>4898397506</v>
       </c>
     </row>
     <row r="332">
@@ -16453,7 +16453,7 @@
         </is>
       </c>
       <c r="P332" t="n">
-        <v>3424887597</v>
+        <v>4313714107</v>
       </c>
     </row>
     <row r="333">
@@ -16501,7 +16501,7 @@
         </is>
       </c>
       <c r="P333" t="n">
-        <v>9587509494</v>
+        <v>9424083280</v>
       </c>
     </row>
     <row r="334">
@@ -16549,7 +16549,7 @@
         </is>
       </c>
       <c r="P334" t="n">
-        <v>7919478104</v>
+        <v>2930113316</v>
       </c>
     </row>
     <row r="335">
@@ -16597,7 +16597,7 @@
         </is>
       </c>
       <c r="P335" t="n">
-        <v>8224734129</v>
+        <v>9489585690</v>
       </c>
     </row>
     <row r="336">
@@ -16645,7 +16645,7 @@
         </is>
       </c>
       <c r="P336" t="n">
-        <v>6087809697</v>
+        <v>2134367580</v>
       </c>
     </row>
     <row r="337">
@@ -16693,7 +16693,7 @@
         </is>
       </c>
       <c r="P337" t="n">
-        <v>6437044429</v>
+        <v>5527166591</v>
       </c>
     </row>
     <row r="338">
@@ -16741,7 +16741,7 @@
         </is>
       </c>
       <c r="P338" t="n">
-        <v>3400107134</v>
+        <v>4773607062</v>
       </c>
     </row>
     <row r="339">
@@ -16789,7 +16789,7 @@
         </is>
       </c>
       <c r="P339" t="n">
-        <v>7545341369</v>
+        <v>5111411424</v>
       </c>
     </row>
     <row r="340">
@@ -16837,7 +16837,7 @@
         </is>
       </c>
       <c r="P340" t="n">
-        <v>8265125643</v>
+        <v>1298001758</v>
       </c>
     </row>
     <row r="341">
@@ -16885,7 +16885,7 @@
         </is>
       </c>
       <c r="P341" t="n">
-        <v>2720060531</v>
+        <v>3388995136</v>
       </c>
     </row>
     <row r="342">
@@ -16933,7 +16933,7 @@
         </is>
       </c>
       <c r="P342" t="n">
-        <v>5064107218</v>
+        <v>5166704256</v>
       </c>
     </row>
     <row r="343">
@@ -16981,7 +16981,7 @@
         </is>
       </c>
       <c r="P343" t="n">
-        <v>9634347478</v>
+        <v>4557832438</v>
       </c>
     </row>
     <row r="344">
@@ -17029,7 +17029,7 @@
         </is>
       </c>
       <c r="P344" t="n">
-        <v>7063121268</v>
+        <v>5587332296</v>
       </c>
     </row>
     <row r="345">
@@ -17077,7 +17077,7 @@
         </is>
       </c>
       <c r="P345" t="n">
-        <v>4656868939</v>
+        <v>2741753537</v>
       </c>
     </row>
     <row r="346">
@@ -17125,7 +17125,7 @@
         </is>
       </c>
       <c r="P346" t="n">
-        <v>2106904545</v>
+        <v>4054580470</v>
       </c>
     </row>
     <row r="347">
@@ -17173,7 +17173,7 @@
         </is>
       </c>
       <c r="P347" t="n">
-        <v>1973292357</v>
+        <v>9735875726</v>
       </c>
     </row>
     <row r="348">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="P348" t="n">
-        <v>3105137337</v>
+        <v>8327455395</v>
       </c>
     </row>
     <row r="349">
@@ -17269,7 +17269,7 @@
         </is>
       </c>
       <c r="P349" t="n">
-        <v>9477691644</v>
+        <v>905285447</v>
       </c>
     </row>
     <row r="350">
@@ -17317,7 +17317,7 @@
         </is>
       </c>
       <c r="P350" t="n">
-        <v>7226980720</v>
+        <v>7021908664</v>
       </c>
     </row>
     <row r="351">
@@ -17365,7 +17365,7 @@
         </is>
       </c>
       <c r="P351" t="n">
-        <v>9279645820</v>
+        <v>1353548346</v>
       </c>
     </row>
     <row r="352">
@@ -17413,7 +17413,7 @@
         </is>
       </c>
       <c r="P352" t="n">
-        <v>5665978961</v>
+        <v>9640650190</v>
       </c>
     </row>
     <row r="353">
@@ -17461,7 +17461,7 @@
         </is>
       </c>
       <c r="P353" t="n">
-        <v>1003315088</v>
+        <v>9522905165</v>
       </c>
     </row>
     <row r="354">
@@ -17509,7 +17509,7 @@
         </is>
       </c>
       <c r="P354" t="n">
-        <v>3947979264</v>
+        <v>6901885619</v>
       </c>
     </row>
     <row r="355">
@@ -17557,7 +17557,7 @@
         </is>
       </c>
       <c r="P355" t="n">
-        <v>2457928132</v>
+        <v>83458310</v>
       </c>
     </row>
     <row r="356">
@@ -17605,7 +17605,7 @@
         </is>
       </c>
       <c r="P356" t="n">
-        <v>984727901</v>
+        <v>8231732743</v>
       </c>
     </row>
     <row r="357">
@@ -17653,7 +17653,7 @@
         </is>
       </c>
       <c r="P357" t="n">
-        <v>8071852478</v>
+        <v>4082817656</v>
       </c>
     </row>
     <row r="358">
@@ -17701,7 +17701,7 @@
         </is>
       </c>
       <c r="P358" t="n">
-        <v>7234663312</v>
+        <v>3414365018</v>
       </c>
     </row>
     <row r="359">
@@ -17749,7 +17749,7 @@
         </is>
       </c>
       <c r="P359" t="n">
-        <v>7556102816</v>
+        <v>8114396251</v>
       </c>
     </row>
     <row r="360">
@@ -17797,7 +17797,7 @@
         </is>
       </c>
       <c r="P360" t="n">
-        <v>26050513</v>
+        <v>4458038744</v>
       </c>
     </row>
     <row r="361">
@@ -17845,7 +17845,7 @@
         </is>
       </c>
       <c r="P361" t="n">
-        <v>895373810</v>
+        <v>8083354214</v>
       </c>
     </row>
     <row r="362">
@@ -17893,7 +17893,7 @@
         </is>
       </c>
       <c r="P362" t="n">
-        <v>955564452</v>
+        <v>1437676771</v>
       </c>
     </row>
     <row r="363">
@@ -17941,7 +17941,7 @@
         </is>
       </c>
       <c r="P363" t="n">
-        <v>120946956</v>
+        <v>1377424471</v>
       </c>
     </row>
     <row r="364">
@@ -17991,7 +17991,7 @@
         </is>
       </c>
       <c r="P364" t="n">
-        <v>9204079896</v>
+        <v>3016998164</v>
       </c>
     </row>
     <row r="365">
@@ -18039,7 +18039,7 @@
         </is>
       </c>
       <c r="P365" t="n">
-        <v>9740599168</v>
+        <v>9237379279</v>
       </c>
     </row>
     <row r="366">
@@ -18087,7 +18087,7 @@
         </is>
       </c>
       <c r="P366" t="n">
-        <v>6894086943</v>
+        <v>9760568636</v>
       </c>
     </row>
     <row r="367">
@@ -18135,7 +18135,7 @@
         </is>
       </c>
       <c r="P367" t="n">
-        <v>1643711525</v>
+        <v>6028532226</v>
       </c>
     </row>
     <row r="368">
@@ -18183,7 +18183,7 @@
         </is>
       </c>
       <c r="P368" t="n">
-        <v>3049852557</v>
+        <v>3615050602</v>
       </c>
     </row>
     <row r="369">
@@ -18231,7 +18231,7 @@
         </is>
       </c>
       <c r="P369" t="n">
-        <v>3007479320</v>
+        <v>2509361518</v>
       </c>
     </row>
     <row r="370">
@@ -18279,7 +18279,7 @@
         </is>
       </c>
       <c r="P370" t="n">
-        <v>6906392614</v>
+        <v>4391224130</v>
       </c>
     </row>
     <row r="371">
@@ -18327,7 +18327,7 @@
         </is>
       </c>
       <c r="P371" t="n">
-        <v>9514063439</v>
+        <v>7224621500</v>
       </c>
     </row>
     <row r="372">
@@ -18375,7 +18375,7 @@
         </is>
       </c>
       <c r="P372" t="n">
-        <v>6833473378</v>
+        <v>1048017513</v>
       </c>
     </row>
     <row r="373">
@@ -18423,7 +18423,7 @@
         </is>
       </c>
       <c r="P373" t="n">
-        <v>6537952544</v>
+        <v>61842884</v>
       </c>
     </row>
     <row r="374">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="P374" t="n">
-        <v>7705622538</v>
+        <v>6003254558</v>
       </c>
     </row>
     <row r="375">
@@ -18519,7 +18519,7 @@
         </is>
       </c>
       <c r="P375" t="n">
-        <v>3263114140</v>
+        <v>810827272</v>
       </c>
     </row>
     <row r="376">
@@ -18567,7 +18567,7 @@
         </is>
       </c>
       <c r="P376" t="n">
-        <v>3756847087</v>
+        <v>6495281172</v>
       </c>
     </row>
     <row r="377">
@@ -18615,7 +18615,7 @@
         </is>
       </c>
       <c r="P377" t="n">
-        <v>620844431</v>
+        <v>9981479609</v>
       </c>
     </row>
     <row r="378">
@@ -18663,7 +18663,7 @@
         </is>
       </c>
       <c r="P378" t="n">
-        <v>735202530</v>
+        <v>2697159607</v>
       </c>
     </row>
     <row r="379">
@@ -18711,7 +18711,7 @@
         </is>
       </c>
       <c r="P379" t="n">
-        <v>1216497163</v>
+        <v>1608312344</v>
       </c>
     </row>
     <row r="380">
@@ -18759,7 +18759,7 @@
         </is>
       </c>
       <c r="P380" t="n">
-        <v>811816564</v>
+        <v>6333917396</v>
       </c>
     </row>
     <row r="381">
@@ -18807,7 +18807,7 @@
         </is>
       </c>
       <c r="P381" t="n">
-        <v>4222253388</v>
+        <v>1017066990</v>
       </c>
     </row>
     <row r="382">
@@ -18855,7 +18855,7 @@
         </is>
       </c>
       <c r="P382" t="n">
-        <v>8619612344</v>
+        <v>7547750505</v>
       </c>
     </row>
     <row r="383">
@@ -18903,7 +18903,7 @@
         </is>
       </c>
       <c r="P383" t="n">
-        <v>7405104760</v>
+        <v>2685984945</v>
       </c>
     </row>
     <row r="384">
@@ -18951,7 +18951,7 @@
         </is>
       </c>
       <c r="P384" t="n">
-        <v>1618039139</v>
+        <v>5138642290</v>
       </c>
     </row>
     <row r="385">
@@ -18999,7 +18999,7 @@
         </is>
       </c>
       <c r="P385" t="n">
-        <v>6991573650</v>
+        <v>6036308485</v>
       </c>
     </row>
     <row r="386">
@@ -19047,7 +19047,7 @@
         </is>
       </c>
       <c r="P386" t="n">
-        <v>5491910159</v>
+        <v>390480003</v>
       </c>
     </row>
     <row r="387">
@@ -19095,7 +19095,7 @@
         </is>
       </c>
       <c r="P387" t="n">
-        <v>7601091730</v>
+        <v>9805391118</v>
       </c>
     </row>
     <row r="388">
@@ -19143,7 +19143,7 @@
         </is>
       </c>
       <c r="P388" t="n">
-        <v>5242947775</v>
+        <v>3298194581</v>
       </c>
     </row>
     <row r="389">
@@ -19191,7 +19191,7 @@
         </is>
       </c>
       <c r="P389" t="n">
-        <v>5302145908</v>
+        <v>5109188845</v>
       </c>
     </row>
     <row r="390">
@@ -19239,7 +19239,7 @@
         </is>
       </c>
       <c r="P390" t="n">
-        <v>3959735670</v>
+        <v>6480065636</v>
       </c>
     </row>
     <row r="391">
@@ -19287,7 +19287,7 @@
         </is>
       </c>
       <c r="P391" t="n">
-        <v>6273578928</v>
+        <v>6861900187</v>
       </c>
     </row>
     <row r="392">
@@ -19335,7 +19335,7 @@
         </is>
       </c>
       <c r="P392" t="n">
-        <v>9817940123</v>
+        <v>8956089581</v>
       </c>
     </row>
     <row r="393">
@@ -19383,7 +19383,7 @@
         </is>
       </c>
       <c r="P393" t="n">
-        <v>3331253254</v>
+        <v>701408286</v>
       </c>
     </row>
     <row r="394">
@@ -19431,7 +19431,7 @@
         </is>
       </c>
       <c r="P394" t="n">
-        <v>2637187500</v>
+        <v>9089706673</v>
       </c>
     </row>
     <row r="395">
@@ -19479,7 +19479,7 @@
         </is>
       </c>
       <c r="P395" t="n">
-        <v>4427832601</v>
+        <v>786001654</v>
       </c>
     </row>
     <row r="396">
@@ -19527,7 +19527,7 @@
         </is>
       </c>
       <c r="P396" t="n">
-        <v>4368249977</v>
+        <v>7452906051</v>
       </c>
     </row>
     <row r="397">
@@ -19575,7 +19575,7 @@
         </is>
       </c>
       <c r="P397" t="n">
-        <v>2544835256</v>
+        <v>3063721557</v>
       </c>
     </row>
     <row r="398">
@@ -19623,7 +19623,7 @@
         </is>
       </c>
       <c r="P398" t="n">
-        <v>8849266439</v>
+        <v>3291773489</v>
       </c>
     </row>
     <row r="399">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="P399" t="n">
-        <v>9356272078</v>
+        <v>7261028170</v>
       </c>
     </row>
     <row r="400">
@@ -19719,7 +19719,7 @@
         </is>
       </c>
       <c r="P400" t="n">
-        <v>344116836</v>
+        <v>9295584268</v>
       </c>
     </row>
     <row r="401">
@@ -19767,7 +19767,7 @@
         </is>
       </c>
       <c r="P401" t="n">
-        <v>7795129319</v>
+        <v>866919710</v>
       </c>
     </row>
     <row r="402">
@@ -19815,7 +19815,7 @@
         </is>
       </c>
       <c r="P402" t="n">
-        <v>3802975104</v>
+        <v>6215912091</v>
       </c>
     </row>
     <row r="403">
@@ -19863,7 +19863,7 @@
         </is>
       </c>
       <c r="P403" t="n">
-        <v>8711873430</v>
+        <v>6337621757</v>
       </c>
     </row>
     <row r="404">
@@ -19911,7 +19911,7 @@
         </is>
       </c>
       <c r="P404" t="n">
-        <v>9039541065</v>
+        <v>8383844894</v>
       </c>
     </row>
     <row r="405">
@@ -19959,7 +19959,7 @@
         </is>
       </c>
       <c r="P405" t="n">
-        <v>5825090689</v>
+        <v>8168216357</v>
       </c>
     </row>
     <row r="406">
@@ -20007,7 +20007,7 @@
         </is>
       </c>
       <c r="P406" t="n">
-        <v>5774141036</v>
+        <v>7344438826</v>
       </c>
     </row>
     <row r="407">
@@ -20055,7 +20055,7 @@
         </is>
       </c>
       <c r="P407" t="n">
-        <v>313533498</v>
+        <v>1195333252</v>
       </c>
     </row>
     <row r="408">
@@ -20103,7 +20103,7 @@
         </is>
       </c>
       <c r="P408" t="n">
-        <v>9760937922</v>
+        <v>5158579181</v>
       </c>
     </row>
     <row r="409">
@@ -20151,7 +20151,7 @@
         </is>
       </c>
       <c r="P409" t="n">
-        <v>6118059448</v>
+        <v>1162003587</v>
       </c>
     </row>
     <row r="410">
@@ -20199,7 +20199,7 @@
         </is>
       </c>
       <c r="P410" t="n">
-        <v>4290666051</v>
+        <v>8363407803</v>
       </c>
     </row>
     <row r="411">
@@ -20247,7 +20247,7 @@
         </is>
       </c>
       <c r="P411" t="n">
-        <v>109459412</v>
+        <v>7978795301</v>
       </c>
     </row>
     <row r="412">
@@ -20295,7 +20295,7 @@
         </is>
       </c>
       <c r="P412" t="n">
-        <v>9924330662</v>
+        <v>963904629</v>
       </c>
     </row>
     <row r="413">
@@ -20343,7 +20343,7 @@
         </is>
       </c>
       <c r="P413" t="n">
-        <v>969925351</v>
+        <v>6648361088</v>
       </c>
     </row>
     <row r="414">
@@ -20391,7 +20391,7 @@
         </is>
       </c>
       <c r="P414" t="n">
-        <v>1674567332</v>
+        <v>4736519287</v>
       </c>
     </row>
     <row r="415">
@@ -20439,7 +20439,7 @@
         </is>
       </c>
       <c r="P415" t="n">
-        <v>1072390378</v>
+        <v>2111826169</v>
       </c>
     </row>
     <row r="416">
@@ -20487,7 +20487,7 @@
         </is>
       </c>
       <c r="P416" t="n">
-        <v>9907351214</v>
+        <v>411018726</v>
       </c>
     </row>
     <row r="417">
@@ -20535,7 +20535,7 @@
         </is>
       </c>
       <c r="P417" t="n">
-        <v>6886159983</v>
+        <v>7546502173</v>
       </c>
     </row>
     <row r="418">
@@ -20583,7 +20583,7 @@
         </is>
       </c>
       <c r="P418" t="n">
-        <v>752429478</v>
+        <v>9872237487</v>
       </c>
     </row>
     <row r="419">
@@ -20631,7 +20631,7 @@
         </is>
       </c>
       <c r="P419" t="n">
-        <v>1554722815</v>
+        <v>6782996263</v>
       </c>
     </row>
     <row r="420">
@@ -20679,7 +20679,7 @@
         </is>
       </c>
       <c r="P420" t="n">
-        <v>9664995660</v>
+        <v>6716007273</v>
       </c>
     </row>
     <row r="421">
@@ -20727,7 +20727,7 @@
         </is>
       </c>
       <c r="P421" t="n">
-        <v>5625594694</v>
+        <v>2436375113</v>
       </c>
     </row>
     <row r="422">
@@ -20775,7 +20775,7 @@
         </is>
       </c>
       <c r="P422" t="n">
-        <v>1089536948</v>
+        <v>7312380490</v>
       </c>
     </row>
     <row r="423">
@@ -20823,7 +20823,7 @@
         </is>
       </c>
       <c r="P423" t="n">
-        <v>1812874291</v>
+        <v>5190987877</v>
       </c>
     </row>
     <row r="424">
@@ -20873,7 +20873,7 @@
         </is>
       </c>
       <c r="P424" t="n">
-        <v>8796826307</v>
+        <v>4364241280</v>
       </c>
     </row>
     <row r="425">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="P425" t="n">
-        <v>5740589514</v>
+        <v>3305992094</v>
       </c>
     </row>
     <row r="426">
@@ -20969,7 +20969,7 @@
         </is>
       </c>
       <c r="P426" t="n">
-        <v>1239086561</v>
+        <v>4874666380</v>
       </c>
     </row>
     <row r="427">
@@ -21017,7 +21017,7 @@
         </is>
       </c>
       <c r="P427" t="n">
-        <v>2315422028</v>
+        <v>7665892174</v>
       </c>
     </row>
     <row r="428">
@@ -21067,7 +21067,7 @@
         </is>
       </c>
       <c r="P428" t="n">
-        <v>44732663</v>
+        <v>1323116876</v>
       </c>
     </row>
     <row r="429">
@@ -21115,7 +21115,7 @@
         </is>
       </c>
       <c r="P429" t="n">
-        <v>349339521</v>
+        <v>1366098612</v>
       </c>
     </row>
     <row r="430">
@@ -21163,7 +21163,7 @@
         </is>
       </c>
       <c r="P430" t="n">
-        <v>614518770</v>
+        <v>6263233156</v>
       </c>
     </row>
     <row r="431">
@@ -21211,7 +21211,7 @@
         </is>
       </c>
       <c r="P431" t="n">
-        <v>4277686121</v>
+        <v>9576697190</v>
       </c>
     </row>
     <row r="432">
@@ -21259,7 +21259,7 @@
         </is>
       </c>
       <c r="P432" t="n">
-        <v>2914901686</v>
+        <v>9402443408</v>
       </c>
     </row>
     <row r="433">
@@ -21307,7 +21307,7 @@
         </is>
       </c>
       <c r="P433" t="n">
-        <v>2101338379</v>
+        <v>7036734530</v>
       </c>
     </row>
     <row r="434">
@@ -21355,7 +21355,7 @@
         </is>
       </c>
       <c r="P434" t="n">
-        <v>2519742725</v>
+        <v>3931070004</v>
       </c>
     </row>
     <row r="435">
@@ -21403,7 +21403,7 @@
         </is>
       </c>
       <c r="P435" t="n">
-        <v>7131641838</v>
+        <v>8038076551</v>
       </c>
     </row>
     <row r="436">
@@ -21451,7 +21451,7 @@
         </is>
       </c>
       <c r="P436" t="n">
-        <v>3600905017</v>
+        <v>5951622735</v>
       </c>
     </row>
     <row r="437">
@@ -21499,7 +21499,7 @@
         </is>
       </c>
       <c r="P437" t="n">
-        <v>3323786608</v>
+        <v>7311341415</v>
       </c>
     </row>
     <row r="438">
@@ -21547,7 +21547,7 @@
         </is>
       </c>
       <c r="P438" t="n">
-        <v>1969162665</v>
+        <v>9038289792</v>
       </c>
     </row>
     <row r="439">
@@ -21595,7 +21595,7 @@
         </is>
       </c>
       <c r="P439" t="n">
-        <v>311901786</v>
+        <v>6642510097</v>
       </c>
     </row>
     <row r="440">
@@ -21643,7 +21643,7 @@
         </is>
       </c>
       <c r="P440" t="n">
-        <v>5258344781</v>
+        <v>8282993299</v>
       </c>
     </row>
     <row r="441">
@@ -21691,7 +21691,7 @@
         </is>
       </c>
       <c r="P441" t="n">
-        <v>5155361836</v>
+        <v>6797747898</v>
       </c>
     </row>
     <row r="442">
@@ -21739,7 +21739,7 @@
         </is>
       </c>
       <c r="P442" t="n">
-        <v>7798657838</v>
+        <v>3655094934</v>
       </c>
     </row>
     <row r="443">
@@ -21787,7 +21787,7 @@
         </is>
       </c>
       <c r="P443" t="n">
-        <v>5503155075</v>
+        <v>4256562252</v>
       </c>
     </row>
     <row r="444">
@@ -21835,7 +21835,7 @@
         </is>
       </c>
       <c r="P444" t="n">
-        <v>2200770310</v>
+        <v>658596929</v>
       </c>
     </row>
     <row r="445">
@@ -21883,7 +21883,7 @@
         </is>
       </c>
       <c r="P445" t="n">
-        <v>92108416</v>
+        <v>8532337061</v>
       </c>
     </row>
     <row r="446">
@@ -21931,7 +21931,7 @@
         </is>
       </c>
       <c r="P446" t="n">
-        <v>8255754157</v>
+        <v>3425425714</v>
       </c>
     </row>
     <row r="447">
@@ -21979,7 +21979,7 @@
         </is>
       </c>
       <c r="P447" t="n">
-        <v>5596162930</v>
+        <v>642296237</v>
       </c>
     </row>
     <row r="448">
@@ -22027,7 +22027,7 @@
         </is>
       </c>
       <c r="P448" t="n">
-        <v>3829939355</v>
+        <v>6805545813</v>
       </c>
     </row>
     <row r="449">
@@ -22075,7 +22075,7 @@
         </is>
       </c>
       <c r="P449" t="n">
-        <v>6227127703</v>
+        <v>8677834908</v>
       </c>
     </row>
     <row r="450">
@@ -22123,7 +22123,7 @@
         </is>
       </c>
       <c r="P450" t="n">
-        <v>7597115247</v>
+        <v>6976432470</v>
       </c>
     </row>
     <row r="451">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="P451" t="n">
-        <v>7531770487</v>
+        <v>6490125605</v>
       </c>
     </row>
     <row r="452">
@@ -22219,7 +22219,7 @@
         </is>
       </c>
       <c r="P452" t="n">
-        <v>3480069519</v>
+        <v>7326301855</v>
       </c>
     </row>
     <row r="453">
@@ -22267,7 +22267,7 @@
         </is>
       </c>
       <c r="P453" t="n">
-        <v>3015519012</v>
+        <v>3138052721</v>
       </c>
     </row>
     <row r="454">
@@ -22315,7 +22315,7 @@
         </is>
       </c>
       <c r="P454" t="n">
-        <v>1338498476</v>
+        <v>4032438465</v>
       </c>
     </row>
     <row r="455">
@@ -22363,7 +22363,7 @@
         </is>
       </c>
       <c r="P455" t="n">
-        <v>9755878865</v>
+        <v>4850580950</v>
       </c>
     </row>
     <row r="456">
@@ -22411,7 +22411,7 @@
         </is>
       </c>
       <c r="P456" t="n">
-        <v>2187720793</v>
+        <v>7682898131</v>
       </c>
     </row>
     <row r="457">
@@ -22459,7 +22459,7 @@
         </is>
       </c>
       <c r="P457" t="n">
-        <v>3007749007</v>
+        <v>9298953767</v>
       </c>
     </row>
     <row r="458">
@@ -22507,7 +22507,7 @@
         </is>
       </c>
       <c r="P458" t="n">
-        <v>8223147445</v>
+        <v>6665565566</v>
       </c>
     </row>
     <row r="459">
@@ -22555,7 +22555,7 @@
         </is>
       </c>
       <c r="P459" t="n">
-        <v>2623826505</v>
+        <v>2536237477</v>
       </c>
     </row>
     <row r="460">
@@ -22603,7 +22603,7 @@
         </is>
       </c>
       <c r="P460" t="n">
-        <v>8501230707</v>
+        <v>5501070308</v>
       </c>
     </row>
     <row r="461">
@@ -22651,7 +22651,7 @@
         </is>
       </c>
       <c r="P461" t="n">
-        <v>9685982356</v>
+        <v>5028334955</v>
       </c>
     </row>
     <row r="462">
@@ -22699,7 +22699,7 @@
         </is>
       </c>
       <c r="P462" t="n">
-        <v>8048804859</v>
+        <v>5658270291</v>
       </c>
     </row>
     <row r="463">
@@ -22747,7 +22747,7 @@
         </is>
       </c>
       <c r="P463" t="n">
-        <v>9663486300</v>
+        <v>6592275874</v>
       </c>
     </row>
     <row r="464">
@@ -22795,7 +22795,7 @@
         </is>
       </c>
       <c r="P464" t="n">
-        <v>3798972793</v>
+        <v>4746796470</v>
       </c>
     </row>
     <row r="465">
@@ -22843,7 +22843,7 @@
         </is>
       </c>
       <c r="P465" t="n">
-        <v>5641049232</v>
+        <v>2361782943</v>
       </c>
     </row>
     <row r="466">
@@ -22891,7 +22891,7 @@
         </is>
       </c>
       <c r="P466" t="n">
-        <v>3211123095</v>
+        <v>4452973176</v>
       </c>
     </row>
     <row r="467">
@@ -22939,7 +22939,7 @@
         </is>
       </c>
       <c r="P467" t="n">
-        <v>5412879768</v>
+        <v>3926185317</v>
       </c>
     </row>
     <row r="468">
@@ -22987,7 +22987,7 @@
         </is>
       </c>
       <c r="P468" t="n">
-        <v>5656532936</v>
+        <v>632577110</v>
       </c>
     </row>
     <row r="469">
@@ -23035,7 +23035,7 @@
         </is>
       </c>
       <c r="P469" t="n">
-        <v>1453517199</v>
+        <v>4894145221</v>
       </c>
     </row>
     <row r="470">
@@ -23083,7 +23083,7 @@
         </is>
       </c>
       <c r="P470" t="n">
-        <v>2189186399</v>
+        <v>3270499030</v>
       </c>
     </row>
     <row r="471">
@@ -23131,7 +23131,7 @@
         </is>
       </c>
       <c r="P471" t="n">
-        <v>4539855393</v>
+        <v>3609499882</v>
       </c>
     </row>
     <row r="472">
@@ -23179,7 +23179,7 @@
         </is>
       </c>
       <c r="P472" t="n">
-        <v>6270366448</v>
+        <v>68256674</v>
       </c>
     </row>
     <row r="473">
@@ -23227,7 +23227,7 @@
         </is>
       </c>
       <c r="P473" t="n">
-        <v>9804503606</v>
+        <v>5592001867</v>
       </c>
     </row>
     <row r="474">
@@ -23275,7 +23275,7 @@
         </is>
       </c>
       <c r="P474" t="n">
-        <v>5385937446</v>
+        <v>1240055797</v>
       </c>
     </row>
     <row r="475">
@@ -23323,7 +23323,7 @@
         </is>
       </c>
       <c r="P475" t="n">
-        <v>1805641310</v>
+        <v>4454642757</v>
       </c>
     </row>
     <row r="476">
@@ -23371,7 +23371,7 @@
         </is>
       </c>
       <c r="P476" t="n">
-        <v>9236132353</v>
+        <v>4640610836</v>
       </c>
     </row>
     <row r="477">
@@ -23419,7 +23419,7 @@
         </is>
       </c>
       <c r="P477" t="n">
-        <v>3727993544</v>
+        <v>249187824</v>
       </c>
     </row>
     <row r="478">
@@ -23467,7 +23467,7 @@
         </is>
       </c>
       <c r="P478" t="n">
-        <v>7861673139</v>
+        <v>3011864424</v>
       </c>
     </row>
     <row r="479">
@@ -23515,7 +23515,7 @@
         </is>
       </c>
       <c r="P479" t="n">
-        <v>7720193780</v>
+        <v>1817837584</v>
       </c>
     </row>
     <row r="480">
@@ -23563,7 +23563,7 @@
         </is>
       </c>
       <c r="P480" t="n">
-        <v>2827673612</v>
+        <v>4179263386</v>
       </c>
     </row>
     <row r="481">
@@ -23611,7 +23611,7 @@
         </is>
       </c>
       <c r="P481" t="n">
-        <v>2622239753</v>
+        <v>8900740302</v>
       </c>
     </row>
     <row r="482">
@@ -23659,7 +23659,7 @@
         </is>
       </c>
       <c r="P482" t="n">
-        <v>6478799844</v>
+        <v>5654109701</v>
       </c>
     </row>
     <row r="483">
@@ -23707,7 +23707,7 @@
         </is>
       </c>
       <c r="P483" t="n">
-        <v>6229824517</v>
+        <v>9917511985</v>
       </c>
     </row>
     <row r="484">
@@ -23757,7 +23757,7 @@
         </is>
       </c>
       <c r="P484" t="n">
-        <v>4698639587</v>
+        <v>39047434</v>
       </c>
     </row>
     <row r="485">
@@ -23807,7 +23807,7 @@
         </is>
       </c>
       <c r="P485" t="n">
-        <v>8410762503</v>
+        <v>4658476721</v>
       </c>
     </row>
     <row r="486">
@@ -23855,7 +23855,7 @@
         </is>
       </c>
       <c r="P486" t="n">
-        <v>2419783140</v>
+        <v>4823157890</v>
       </c>
     </row>
     <row r="487">
@@ -23903,7 +23903,7 @@
         </is>
       </c>
       <c r="P487" t="n">
-        <v>880526262</v>
+        <v>3312488373</v>
       </c>
     </row>
     <row r="488">
@@ -23949,7 +23949,7 @@
         </is>
       </c>
       <c r="P488" t="n">
-        <v>7175704913</v>
+        <v>1671326698</v>
       </c>
     </row>
     <row r="489">
@@ -23999,7 +23999,7 @@
         </is>
       </c>
       <c r="P489" t="n">
-        <v>7103905372</v>
+        <v>8507299110</v>
       </c>
     </row>
     <row r="490">
@@ -24045,7 +24045,7 @@
         </is>
       </c>
       <c r="P490" t="n">
-        <v>6324907047</v>
+        <v>485338089</v>
       </c>
     </row>
     <row r="491">
@@ -24095,7 +24095,7 @@
         </is>
       </c>
       <c r="P491" t="n">
-        <v>9458761929</v>
+        <v>3458443148</v>
       </c>
     </row>
     <row r="492">
@@ -24143,7 +24143,7 @@
         </is>
       </c>
       <c r="P492" t="n">
-        <v>381104109</v>
+        <v>5176831393</v>
       </c>
     </row>
     <row r="493">
@@ -24191,7 +24191,7 @@
         </is>
       </c>
       <c r="P493" t="n">
-        <v>3737385396</v>
+        <v>448635642</v>
       </c>
     </row>
     <row r="494">
@@ -24237,7 +24237,7 @@
         </is>
       </c>
       <c r="P494" t="n">
-        <v>6332487482</v>
+        <v>7716568356</v>
       </c>
     </row>
     <row r="495">
@@ -24283,7 +24283,7 @@
         </is>
       </c>
       <c r="P495" t="n">
-        <v>420482281</v>
+        <v>9832012980</v>
       </c>
     </row>
     <row r="496">
@@ -24329,7 +24329,7 @@
         </is>
       </c>
       <c r="P496" t="n">
-        <v>9572052479</v>
+        <v>5987279612</v>
       </c>
     </row>
     <row r="497">
@@ -24375,7 +24375,7 @@
         </is>
       </c>
       <c r="P497" t="n">
-        <v>5132847607</v>
+        <v>1002138969</v>
       </c>
     </row>
     <row r="498">
@@ -24421,7 +24421,7 @@
         </is>
       </c>
       <c r="P498" t="n">
-        <v>6806993024</v>
+        <v>5061898182</v>
       </c>
     </row>
     <row r="499">
@@ -24467,7 +24467,7 @@
         </is>
       </c>
       <c r="P499" t="n">
-        <v>7117719857</v>
+        <v>4455870568</v>
       </c>
     </row>
     <row r="500">
@@ -24513,7 +24513,7 @@
         </is>
       </c>
       <c r="P500" t="n">
-        <v>7507105676</v>
+        <v>3153181529</v>
       </c>
     </row>
     <row r="501">
@@ -24559,7 +24559,7 @@
         </is>
       </c>
       <c r="P501" t="n">
-        <v>5704314819</v>
+        <v>314668131</v>
       </c>
     </row>
     <row r="502">
@@ -24607,7 +24607,7 @@
         </is>
       </c>
       <c r="P502" t="n">
-        <v>3349702305</v>
+        <v>264186708</v>
       </c>
     </row>
     <row r="503">
@@ -24653,7 +24653,7 @@
         </is>
       </c>
       <c r="P503" t="n">
-        <v>4610973392</v>
+        <v>4140871874</v>
       </c>
     </row>
     <row r="504">
@@ -24699,7 +24699,7 @@
         </is>
       </c>
       <c r="P504" t="n">
-        <v>5022690652</v>
+        <v>835441224</v>
       </c>
     </row>
     <row r="505">
@@ -24745,7 +24745,7 @@
         </is>
       </c>
       <c r="P505" t="n">
-        <v>532886184</v>
+        <v>6126261404</v>
       </c>
     </row>
     <row r="506">
@@ -24791,7 +24791,7 @@
         </is>
       </c>
       <c r="P506" t="n">
-        <v>1049656346</v>
+        <v>3431007249</v>
       </c>
     </row>
     <row r="507">
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="P507" t="n">
-        <v>7180543121</v>
+        <v>1578264471</v>
       </c>
     </row>
     <row r="508">
@@ -24883,7 +24883,7 @@
         </is>
       </c>
       <c r="P508" t="n">
-        <v>2811059091</v>
+        <v>8267278390</v>
       </c>
     </row>
     <row r="509">
@@ -24929,7 +24929,7 @@
         </is>
       </c>
       <c r="P509" t="n">
-        <v>7793900726</v>
+        <v>6972158630</v>
       </c>
     </row>
     <row r="510">
@@ -24975,7 +24975,7 @@
         </is>
       </c>
       <c r="P510" t="n">
-        <v>436818251</v>
+        <v>8044709375</v>
       </c>
     </row>
     <row r="511">
@@ -25021,7 +25021,7 @@
         </is>
       </c>
       <c r="P511" t="n">
-        <v>4372587800</v>
+        <v>3445173301</v>
       </c>
     </row>
     <row r="512">
@@ -25067,7 +25067,7 @@
         </is>
       </c>
       <c r="P512" t="n">
-        <v>4461106941</v>
+        <v>1504015523</v>
       </c>
     </row>
     <row r="513">
@@ -25113,7 +25113,7 @@
         </is>
       </c>
       <c r="P513" t="n">
-        <v>4808871130</v>
+        <v>2381586698</v>
       </c>
     </row>
     <row r="514">
@@ -25159,7 +25159,7 @@
         </is>
       </c>
       <c r="P514" t="n">
-        <v>7383695278</v>
+        <v>4905066880</v>
       </c>
     </row>
     <row r="515">
@@ -25205,7 +25205,7 @@
         </is>
       </c>
       <c r="P515" t="n">
-        <v>3018237493</v>
+        <v>5060622921</v>
       </c>
     </row>
     <row r="516">
@@ -25251,7 +25251,7 @@
         </is>
       </c>
       <c r="P516" t="n">
-        <v>1163714747</v>
+        <v>7022923114</v>
       </c>
     </row>
     <row r="517">
@@ -25297,7 +25297,7 @@
         </is>
       </c>
       <c r="P517" t="n">
-        <v>8231242152</v>
+        <v>2375401011</v>
       </c>
     </row>
     <row r="518">
@@ -25343,7 +25343,7 @@
         </is>
       </c>
       <c r="P518" t="n">
-        <v>4846836516</v>
+        <v>8503227442</v>
       </c>
     </row>
     <row r="519">
@@ -25389,7 +25389,7 @@
         </is>
       </c>
       <c r="P519" t="n">
-        <v>6345048567</v>
+        <v>8886790399</v>
       </c>
     </row>
     <row r="520">
@@ -25435,7 +25435,7 @@
         </is>
       </c>
       <c r="P520" t="n">
-        <v>5814930599</v>
+        <v>8574758382</v>
       </c>
     </row>
     <row r="521">
@@ -25481,7 +25481,7 @@
         </is>
       </c>
       <c r="P521" t="n">
-        <v>8700054784</v>
+        <v>7160412739</v>
       </c>
     </row>
     <row r="522">
@@ -25527,7 +25527,7 @@
         </is>
       </c>
       <c r="P522" t="n">
-        <v>5586983288</v>
+        <v>6301184305</v>
       </c>
     </row>
     <row r="523">
@@ -25573,7 +25573,7 @@
         </is>
       </c>
       <c r="P523" t="n">
-        <v>9027995107</v>
+        <v>9163880402</v>
       </c>
     </row>
     <row r="524">
@@ -25621,7 +25621,7 @@
         </is>
       </c>
       <c r="P524" t="n">
-        <v>3528465128</v>
+        <v>8928555950</v>
       </c>
     </row>
     <row r="525">
@@ -25669,7 +25669,7 @@
         </is>
       </c>
       <c r="P525" t="n">
-        <v>5787000366</v>
+        <v>4499668700</v>
       </c>
     </row>
     <row r="526">
@@ -25717,7 +25717,7 @@
         </is>
       </c>
       <c r="P526" t="n">
-        <v>4777776657</v>
+        <v>7190830882</v>
       </c>
     </row>
     <row r="527">
@@ -25763,7 +25763,7 @@
         </is>
       </c>
       <c r="P527" t="n">
-        <v>2336661235</v>
+        <v>3330609245</v>
       </c>
     </row>
     <row r="528">
@@ -25811,7 +25811,7 @@
         </is>
       </c>
       <c r="P528" t="n">
-        <v>7430972651</v>
+        <v>7517932848</v>
       </c>
     </row>
     <row r="529">
@@ -25859,7 +25859,7 @@
         </is>
       </c>
       <c r="P529" t="n">
-        <v>2631982841</v>
+        <v>1040512758</v>
       </c>
     </row>
     <row r="530">
@@ -25907,7 +25907,7 @@
         </is>
       </c>
       <c r="P530" t="n">
-        <v>2479610813</v>
+        <v>534446798</v>
       </c>
     </row>
     <row r="531">
@@ -25955,7 +25955,7 @@
         </is>
       </c>
       <c r="P531" t="n">
-        <v>2800535229</v>
+        <v>5516365101</v>
       </c>
     </row>
     <row r="532">
@@ -26001,7 +26001,7 @@
         </is>
       </c>
       <c r="P532" t="n">
-        <v>865642173</v>
+        <v>6624653193</v>
       </c>
     </row>
     <row r="533">
@@ -26047,7 +26047,7 @@
         </is>
       </c>
       <c r="P533" t="n">
-        <v>8766269233</v>
+        <v>1504709642</v>
       </c>
     </row>
     <row r="534">
@@ -26093,7 +26093,7 @@
         </is>
       </c>
       <c r="P534" t="n">
-        <v>6953917233</v>
+        <v>7127121023</v>
       </c>
     </row>
     <row r="535">
@@ -26139,7 +26139,7 @@
         </is>
       </c>
       <c r="P535" t="n">
-        <v>3653650178</v>
+        <v>3761262648</v>
       </c>
     </row>
     <row r="536">
@@ -26187,7 +26187,7 @@
         </is>
       </c>
       <c r="P536" t="n">
-        <v>2328816468</v>
+        <v>557433299</v>
       </c>
     </row>
     <row r="537">
@@ -26235,7 +26235,7 @@
         </is>
       </c>
       <c r="P537" t="n">
-        <v>1953161127</v>
+        <v>3831395076</v>
       </c>
     </row>
     <row r="538">
@@ -26283,7 +26283,7 @@
         </is>
       </c>
       <c r="P538" t="n">
-        <v>2690345083</v>
+        <v>3025193200</v>
       </c>
     </row>
     <row r="539">
@@ -26329,7 +26329,7 @@
         </is>
       </c>
       <c r="P539" t="n">
-        <v>4155856295</v>
+        <v>3013211594</v>
       </c>
     </row>
     <row r="540">
@@ -26375,7 +26375,7 @@
         </is>
       </c>
       <c r="P540" t="n">
-        <v>9887507706</v>
+        <v>3633356499</v>
       </c>
     </row>
     <row r="541">
@@ -26421,7 +26421,7 @@
         </is>
       </c>
       <c r="P541" t="n">
-        <v>9450508521</v>
+        <v>2888687071</v>
       </c>
     </row>
     <row r="542">
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="P542" t="n">
-        <v>8380787755</v>
+        <v>3231176240</v>
       </c>
     </row>
     <row r="543">
@@ -26515,7 +26515,7 @@
         </is>
       </c>
       <c r="P543" t="n">
-        <v>6574109274</v>
+        <v>5823918755</v>
       </c>
     </row>
     <row r="544">
@@ -26561,7 +26561,7 @@
         </is>
       </c>
       <c r="P544" t="n">
-        <v>6516590952</v>
+        <v>4639855903</v>
       </c>
     </row>
     <row r="545">
@@ -26607,7 +26607,7 @@
         </is>
       </c>
       <c r="P545" t="n">
-        <v>1717936655</v>
+        <v>7125297613</v>
       </c>
     </row>
     <row r="546">
@@ -26653,7 +26653,7 @@
         </is>
       </c>
       <c r="P546" t="n">
-        <v>9485197142</v>
+        <v>2331126239</v>
       </c>
     </row>
     <row r="547">
@@ -26699,7 +26699,7 @@
         </is>
       </c>
       <c r="P547" t="n">
-        <v>8119643483</v>
+        <v>7177380688</v>
       </c>
     </row>
     <row r="548">
@@ -26745,7 +26745,7 @@
         </is>
       </c>
       <c r="P548" t="n">
-        <v>7358221644</v>
+        <v>2530409312</v>
       </c>
     </row>
     <row r="549">
@@ -26793,7 +26793,7 @@
         </is>
       </c>
       <c r="P549" t="n">
-        <v>2555963195</v>
+        <v>2829102626</v>
       </c>
     </row>
     <row r="550">
@@ -26841,7 +26841,7 @@
         </is>
       </c>
       <c r="P550" t="n">
-        <v>9192106149</v>
+        <v>7103801510</v>
       </c>
     </row>
     <row r="551">
@@ -26889,7 +26889,7 @@
         </is>
       </c>
       <c r="P551" t="n">
-        <v>7693704757</v>
+        <v>1989552037</v>
       </c>
     </row>
     <row r="552">
@@ -26937,7 +26937,7 @@
         </is>
       </c>
       <c r="P552" t="n">
-        <v>8085715065</v>
+        <v>5156653261</v>
       </c>
     </row>
     <row r="553">
@@ -26985,7 +26985,7 @@
         </is>
       </c>
       <c r="P553" t="n">
-        <v>6869806998</v>
+        <v>7852286622</v>
       </c>
     </row>
     <row r="554">
@@ -27033,7 +27033,7 @@
         </is>
       </c>
       <c r="P554" t="n">
-        <v>7033955046</v>
+        <v>5760583657</v>
       </c>
     </row>
     <row r="555">
@@ -27081,7 +27081,7 @@
         </is>
       </c>
       <c r="P555" t="n">
-        <v>2475065569</v>
+        <v>9930390707</v>
       </c>
     </row>
     <row r="556">
@@ -27129,7 +27129,7 @@
         </is>
       </c>
       <c r="P556" t="n">
-        <v>9244232920</v>
+        <v>1445030900</v>
       </c>
     </row>
     <row r="557">
@@ -27177,7 +27177,7 @@
         </is>
       </c>
       <c r="P557" t="n">
-        <v>8202395294</v>
+        <v>3387133025</v>
       </c>
     </row>
     <row r="558">
@@ -27225,7 +27225,7 @@
         </is>
       </c>
       <c r="P558" t="n">
-        <v>6644278359</v>
+        <v>7635865435</v>
       </c>
     </row>
     <row r="559">
@@ -27273,7 +27273,7 @@
         </is>
       </c>
       <c r="P559" t="n">
-        <v>4887339602</v>
+        <v>470704573</v>
       </c>
     </row>
     <row r="560">
@@ -27321,7 +27321,7 @@
         </is>
       </c>
       <c r="P560" t="n">
-        <v>1746046116</v>
+        <v>7821635052</v>
       </c>
     </row>
     <row r="561">
@@ -27369,7 +27369,7 @@
         </is>
       </c>
       <c r="P561" t="n">
-        <v>1755506197</v>
+        <v>9126385526</v>
       </c>
     </row>
     <row r="562">
@@ -27417,7 +27417,7 @@
         </is>
       </c>
       <c r="P562" t="n">
-        <v>8238652814</v>
+        <v>4985352736</v>
       </c>
     </row>
     <row r="563">
@@ -27465,7 +27465,7 @@
         </is>
       </c>
       <c r="P563" t="n">
-        <v>6206172132</v>
+        <v>4986310646</v>
       </c>
     </row>
     <row r="564">
@@ -27509,7 +27509,7 @@
         </is>
       </c>
       <c r="P564" t="n">
-        <v>4653385025</v>
+        <v>5346368043</v>
       </c>
     </row>
     <row r="565">
@@ -27557,7 +27557,7 @@
         </is>
       </c>
       <c r="P565" t="n">
-        <v>8027459474</v>
+        <v>2281189155</v>
       </c>
     </row>
     <row r="566">
@@ -27605,7 +27605,7 @@
         </is>
       </c>
       <c r="P566" t="n">
-        <v>5378585904</v>
+        <v>5205614378</v>
       </c>
     </row>
     <row r="567">
@@ -27653,7 +27653,7 @@
         </is>
       </c>
       <c r="P567" t="n">
-        <v>4334629438</v>
+        <v>9870143805</v>
       </c>
     </row>
     <row r="568">
@@ -27697,7 +27697,7 @@
         </is>
       </c>
       <c r="P568" t="n">
-        <v>1218529394</v>
+        <v>5771142552</v>
       </c>
     </row>
     <row r="569">
@@ -27741,7 +27741,7 @@
         </is>
       </c>
       <c r="P569" t="n">
-        <v>5211790446</v>
+        <v>3706256573</v>
       </c>
     </row>
     <row r="570">
@@ -27785,7 +27785,7 @@
         </is>
       </c>
       <c r="P570" t="n">
-        <v>2333729758</v>
+        <v>8686878850</v>
       </c>
     </row>
     <row r="571">
@@ -27829,7 +27829,7 @@
         </is>
       </c>
       <c r="P571" t="n">
-        <v>6319929327</v>
+        <v>6424343781</v>
       </c>
     </row>
     <row r="572">
@@ -27873,7 +27873,7 @@
         </is>
       </c>
       <c r="P572" t="n">
-        <v>3283246924</v>
+        <v>4040079990</v>
       </c>
     </row>
     <row r="573">
@@ -27917,7 +27917,7 @@
         </is>
       </c>
       <c r="P573" t="n">
-        <v>5740032827</v>
+        <v>2074770263</v>
       </c>
     </row>
     <row r="574">
@@ -27961,7 +27961,7 @@
         </is>
       </c>
       <c r="P574" t="n">
-        <v>2605098201</v>
+        <v>3506594052</v>
       </c>
     </row>
     <row r="575">
@@ -28007,7 +28007,7 @@
         </is>
       </c>
       <c r="P575" t="n">
-        <v>2333168638</v>
+        <v>7485497390</v>
       </c>
     </row>
     <row r="576">
@@ -28051,7 +28051,7 @@
         </is>
       </c>
       <c r="P576" t="n">
-        <v>9231667697</v>
+        <v>1722059387</v>
       </c>
     </row>
     <row r="577">
@@ -28095,7 +28095,7 @@
         </is>
       </c>
       <c r="P577" t="n">
-        <v>5376435395</v>
+        <v>992425738</v>
       </c>
     </row>
     <row r="578">
@@ -28141,7 +28141,7 @@
         </is>
       </c>
       <c r="P578" t="n">
-        <v>9013170138</v>
+        <v>1469345264</v>
       </c>
     </row>
     <row r="579">
@@ -28185,7 +28185,7 @@
         </is>
       </c>
       <c r="P579" t="n">
-        <v>1384065630</v>
+        <v>9370776824</v>
       </c>
     </row>
     <row r="580">
@@ -28229,7 +28229,7 @@
         </is>
       </c>
       <c r="P580" t="n">
-        <v>99924077</v>
+        <v>6803269755</v>
       </c>
     </row>
     <row r="581">
@@ -28273,7 +28273,7 @@
         </is>
       </c>
       <c r="P581" t="n">
-        <v>2493030055</v>
+        <v>4673728422</v>
       </c>
     </row>
     <row r="582">
@@ -28317,7 +28317,7 @@
         </is>
       </c>
       <c r="P582" t="n">
-        <v>4679303801</v>
+        <v>3864332138</v>
       </c>
     </row>
     <row r="583">
@@ -28361,7 +28361,7 @@
         </is>
       </c>
       <c r="P583" t="n">
-        <v>2869758584</v>
+        <v>9853876875</v>
       </c>
     </row>
     <row r="584">
@@ -28405,7 +28405,7 @@
         </is>
       </c>
       <c r="P584" t="n">
-        <v>6377751854</v>
+        <v>7254234999</v>
       </c>
     </row>
     <row r="585">
@@ -28449,7 +28449,7 @@
         </is>
       </c>
       <c r="P585" t="n">
-        <v>1272221570</v>
+        <v>694176681</v>
       </c>
     </row>
     <row r="586">
@@ -28493,7 +28493,7 @@
         </is>
       </c>
       <c r="P586" t="n">
-        <v>7793032772</v>
+        <v>3096455330</v>
       </c>
     </row>
     <row r="587">
@@ -28537,7 +28537,7 @@
         </is>
       </c>
       <c r="P587" t="n">
-        <v>8832691499</v>
+        <v>1482823344</v>
       </c>
     </row>
     <row r="588">
@@ -28581,7 +28581,7 @@
         </is>
       </c>
       <c r="P588" t="n">
-        <v>2227701136</v>
+        <v>7652224248</v>
       </c>
     </row>
     <row r="589">
@@ -28625,7 +28625,7 @@
         </is>
       </c>
       <c r="P589" t="n">
-        <v>9493532668</v>
+        <v>4488034177</v>
       </c>
     </row>
     <row r="590">
@@ -28669,7 +28669,7 @@
         </is>
       </c>
       <c r="P590" t="n">
-        <v>9471567196</v>
+        <v>1506973416</v>
       </c>
     </row>
     <row r="591">
@@ -28713,7 +28713,7 @@
         </is>
       </c>
       <c r="P591" t="n">
-        <v>4455994631</v>
+        <v>5670442601</v>
       </c>
     </row>
     <row r="592">
@@ -28757,7 +28757,7 @@
         </is>
       </c>
       <c r="P592" t="n">
-        <v>2484268164</v>
+        <v>8697604102</v>
       </c>
     </row>
     <row r="593">
@@ -28801,7 +28801,7 @@
         </is>
       </c>
       <c r="P593" t="n">
-        <v>2126700585</v>
+        <v>5984602956</v>
       </c>
     </row>
     <row r="594">
@@ -28839,7 +28839,7 @@
         </is>
       </c>
       <c r="P594" t="n">
-        <v>4706986356</v>
+        <v>7907902491</v>
       </c>
     </row>
   </sheetData>
